--- a/input/piu-monitoramento_v2.xlsx
+++ b/input/piu-monitoramento_v2.xlsx
@@ -15392,12 +15392,12 @@
         <f>IFERROR(VLOOKUP(C190,tramitacao!$A$2:$B$101,2,0),"0")</f>
         <v>Consulta Pública Inicial</v>
       </c>
-      <c r="E190" s="10">
-        <v>0.0</v>
+      <c r="E190" s="4">
+        <v>2.0</v>
       </c>
       <c r="F190" s="2" t="str">
         <f>IFERROR(VLOOKUP(E190,grupos!$A$2:$B$100,2,0),"0")</f>
-        <v>0</v>
+        <v>Consulta Inicial</v>
       </c>
       <c r="G190" s="10">
         <v>1.0</v>
@@ -24602,12 +24602,12 @@
         <f>IFERROR(VLOOKUP(C420,tramitacao!$A$2:$B$101,2,0),"0")</f>
         <v>Proposição</v>
       </c>
-      <c r="E420" s="10">
-        <v>0.0</v>
+      <c r="E420" s="4">
+        <v>8.0</v>
       </c>
       <c r="F420" s="2" t="str">
         <f>IFERROR(VLOOKUP(E420,grupos!$A$2:$B$100,2,0),"0")</f>
-        <v>0</v>
+        <v>Processo Administrativo</v>
       </c>
       <c r="G420" s="10">
         <v>11.0</v>
@@ -24642,12 +24642,12 @@
         <f>IFERROR(VLOOKUP(C421,tramitacao!$A$2:$B$101,2,0),"0")</f>
         <v>Proposição</v>
       </c>
-      <c r="E421" s="10">
-        <v>0.0</v>
+      <c r="E421" s="4">
+        <v>8.0</v>
       </c>
       <c r="F421" s="2" t="str">
         <f>IFERROR(VLOOKUP(E421,grupos!$A$2:$B$100,2,0),"0")</f>
-        <v>0</v>
+        <v>Processo Administrativo</v>
       </c>
       <c r="G421" s="10">
         <v>11.0</v>
@@ -24762,12 +24762,12 @@
         <f>IFERROR(VLOOKUP(C424,tramitacao!$A$2:$B$101,2,0),"0")</f>
         <v>Proposição</v>
       </c>
-      <c r="E424" s="10">
-        <v>0.0</v>
+      <c r="E424" s="4">
+        <v>8.0</v>
       </c>
       <c r="F424" s="2" t="str">
         <f>IFERROR(VLOOKUP(E424,grupos!$A$2:$B$100,2,0),"0")</f>
-        <v>0</v>
+        <v>Processo Administrativo</v>
       </c>
       <c r="G424" s="10">
         <v>13.0</v>
@@ -31992,12 +31992,12 @@
         <f>IFERROR(VLOOKUP(C595,tramitacao!$A$2:$B$101,2,0),"0")</f>
         <v>Avaliação SMUL</v>
       </c>
-      <c r="E595" s="10">
-        <v>0.0</v>
+      <c r="E595" s="4">
+        <v>6.0</v>
       </c>
       <c r="F595" s="2" t="str">
         <f>IFERROR(VLOOKUP(E595,grupos!$A$2:$B$100,2,0),"0")</f>
-        <v>0</v>
+        <v>Outros</v>
       </c>
       <c r="G595" s="10">
         <v>21.0</v>

--- a/input/piu-monitoramento_v2.xlsx
+++ b/input/piu-monitoramento_v2.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mhITcX3EdnO2hOEbDbJin1RbmDZZQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgtVHHSmsxzZ+Dkr69Tw3UE2prUZg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1853">
   <si>
     <t>id_projetos</t>
   </si>
@@ -4906,6 +4906,9 @@
     <t>6066.2020/0001263-2</t>
   </si>
   <si>
+    <t>https://sei.prefeitura.sp.gov.br/sei/modulos/pesquisa/md_pesq_processo_exibir.php?XJe606xoyp3QxxkeXOtNa0fx5PPdOBVgkXyyCkRr268Y7xoi5fMBgzr21Gi2DD48HqC6CR8GlHl6lm-9YjSC5xltIXLcS0qPbqVJkL44kVolKqkmpOr4_2tQOGMFPkPc</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -5206,9 +5209,9 @@
     <t>Minhocão</t>
   </si>
   <si>
-    <t xml:space="preserve">A Etapa Prévia ao desenvolvimento deste Projeto de Intervenção Urbana teve como base o artigo 375, parágrafo único, do Plano Diretor Estratégico do Município de São Paulo (PDE), que determina a desativação gradativa do Elevado João Goulart como via de tráfego de veículos,  bem como as disposições trazidas pela  Lei Municipal nº .16.833/2018, que cria o Parque Municipal Minhocão e prevê a necessidade de elaboração de um PIU, para definição das medidas necessárias à desativação do Elevado e sua transformação em  Parque Municipal. Assim, este PIU teve início considerando como única alternativa de desenvolvimento urbano para o local a implantação do Parque Minhocão sobre o tabuleiro do Elevado João Goulart. 
-Tendo em vista o processo judicial em curso, que julgará a Ação Direta de Inconstitucionalidade nº 2129887, e as contribuições recebidas nesta Consulta Pública Prévia, a Prefeitura de São Paulo, ao autorizar o desenvolvimento do PIU Minhocão, determinou que sejam estudas todas as hipóteses apontadas pelo PDE, ou seja, o desmonte ou a implantação total ou parcial de um parque na estrutura do elevado, possibilitando a discussão pública sobre estas alternativas e considerando aspectos diversos, de modo a definir, ao final do processo, a alternativa que melhor responder ao conjunto da sociedade em relação aos problemas e particularidades desta região e melhor contribuir para seu desenvolvimento urbano, social e ambiental. No que tange às estratégias de intervenção no território, considerando que o PIU Minhocão está contido no perímetro de intervenção do PIU Setor Central, deverão ser considerados os estudos já realizados e a regulação proposta neste projeto, de modo a reforçar a relação entre o projeto de cunho geral (PIU do Setor Central) e específico (PIU Minhocão), e buscando uma maior eficiência administrativa aos trabalhos realizados nas duas vertentes citadas. 
-Assim, o PIU Minhocão buscará revelar a alternativa urbanística, ambiental e social mais adequada ao local, integrando o eixo do atual elevado aos principais espaços públicos da região, e deverá definir as obras, medidas e etapas necessárias a dar suporte à gradativa  desativação do Elevado como via de tráfego de veículos. O PIU Minhocão será desenvolvido de forma coordenada com Planos Setoriais específicos para seu perímetro, buscando responder, de forma abrangente, à complexidade de desafios que extrapola as limitações do projeto urbano. 
+    <t xml:space="preserve">A Etapa Prévia ao desenvolvimento deste Projeto de Intervenção Urbana teve como base o artigo 375, parágrafo único, do Plano Diretor Estratégico do Município de São Paulo (PDE), que determina a desativação gradativa do Elevado João Goulart como via de tráfego de veículos,  bem como as disposições trazidas pela  Lei Municipal nº.16.833/2018, que cria o Parque Municipal Minhocão e prevê a necessidade de elaboração de um PIU, para definição das medidas necessárias à desativação do Elevado e sua transformação em  Parque Municipal. Assim, este PIU teve início considerando como única alternativa de desenvolvimento urbano para o local a implantação do Parque Minhocão sobre o tabuleiro do Elevado João Goulart. 
+A Prefeitura de São Paulo, ao autorizar o desenvolvimento do PIU Minhocão, considerando as contribuições recebidas na Consulta Pública Prévia, determinou que sejam estudadas todas as hipóteses apontadas pelo PDE, ou seja, desde o desmonte até a implantação total ou parcial de um parque na estrutura do elevado, possibilitando a discussão pública sobre estas alternativas e considerando aspectos diversos, de modo a definir, ao final do processo, a alternativa que melhor responder ao conjunto da sociedade em relação aos problemas e particularidades desta região e melhor contribuir para seu desenvolvimento urbano, social e ambiental. No que tange às estratégias de intervenção no território, considerando que o PIU Minhocão está contido no perímetro de intervenção do PIU Setor Central, deverão ser considerados os estudos já realizados e a regulação proposta naquele projeto, de modo a reforçar a relação entre o projeto de cunho geral (PIU Setor Central) e o específico (PIU Minhocão), buscando uma maior eficiência administrativa aos trabalhos realizados nas duas vertentes citadas. 
+Assim, o PIU Minhocão buscará revelar a alternativa urbanística, ambiental e social mais adequada ao local, integrando o eixo do atual elevado aos principais espaços públicos da região, e deverá definir as obras, medidas e etapas necessárias a dar suporte à gradativa desativação do Elevado como via de tráfego de veículos. O PIU Minhocão será desenvolvido de forma coordenada com Planos Setoriais específicos para seu perímetro, buscando responder, de forma abrangente, à complexidade de desafios que extrapola as limitações do projeto urbano. 
 </t>
   </si>
   <si>
@@ -5736,8 +5739,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -5862,9 +5866,7 @@
     </font>
     <font>
       <u/>
-      <sz val="8.0"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -5931,14 +5933,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -5968,7 +5970,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6065,7 +6067,9 @@
     <xf borderId="2" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -6090,39 +6094,41 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="9" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="24" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="8" fontId="24" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -25210,9 +25216,7 @@
         <f>IFERROR(VLOOKUP(G435,fontes!$A$2:$B$100,2,0),"0")</f>
         <v>Site SMDP</v>
       </c>
-      <c r="I435" s="11">
-        <v>43294.0</v>
-      </c>
+      <c r="I435" s="11"/>
       <c r="J435" s="10"/>
       <c r="K435" s="9" t="s">
         <v>724</v>
@@ -32164,9 +32168,7 @@
         <f>IFERROR(VLOOKUP(G599,fontes!$A$2:$B$100,2,0),"0")</f>
         <v>SMDP</v>
       </c>
-      <c r="I599" s="11">
-        <v>43504.0</v>
-      </c>
+      <c r="I599" s="11"/>
       <c r="J599" s="10"/>
       <c r="K599" s="9" t="s">
         <v>1008</v>
@@ -47857,7 +47859,9 @@
       <c r="K986" s="16" t="s">
         <v>1614</v>
       </c>
-      <c r="L986" s="46"/>
+      <c r="L986" s="46" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="987" ht="15.0" customHeight="1">
       <c r="A987" s="2"/>
@@ -47872,11 +47876,7 @@
       <c r="J987" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$L$986">
-    <sortState ref="A1:L986">
-      <sortCondition ref="I1:I986"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$1:$L$986"/>
   <conditionalFormatting sqref="I2:I288 I292:I410 I412:I413 I417:I418 I422:I425 I428:I432 I434:I509">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="F"</formula>
@@ -48245,11 +48245,12 @@
     <hyperlink r:id="rId340" ref="L983"/>
     <hyperlink r:id="rId341" ref="L984"/>
     <hyperlink r:id="rId342" ref="L985"/>
+    <hyperlink r:id="rId343" ref="L986"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId343"/>
+  <drawing r:id="rId344"/>
 </worksheet>
 </file>
 
@@ -48270,10 +48271,10 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -48281,7 +48282,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -48297,7 +48298,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="5" ht="9.75" customHeight="1">
@@ -48305,7 +48306,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -48313,7 +48314,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -48321,7 +48322,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -48329,7 +48330,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
@@ -48337,7 +48338,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1">
@@ -48345,7 +48346,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="11" ht="9.75" customHeight="1">
@@ -48353,7 +48354,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -48362,7 +48363,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="13" ht="9.75" customHeight="1">
@@ -48370,7 +48371,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="14" ht="9.75" customHeight="1">
@@ -48378,7 +48379,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" ht="9.75" customHeight="1">
@@ -48386,7 +48387,7 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="16" ht="9.75" customHeight="1">
@@ -49430,46 +49431,46 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>2</v>
@@ -49478,10 +49479,10 @@
         <v>3</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="R1" s="53" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -49489,10 +49490,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D2" s="51">
         <v>0.0</v>
@@ -49502,7 +49503,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="G2" s="54">
         <v>26.35</v>
@@ -49539,10 +49540,10 @@
         <v>Suspenso</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="R2" s="53" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -49550,10 +49551,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D3" s="51">
         <v>0.0</v>
@@ -49563,13 +49564,13 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="G3" s="54">
         <v>31.24</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="I3" s="51">
         <v>2.0</v>
@@ -49600,10 +49601,10 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="Q3" s="56" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="R3" s="53" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -49611,10 +49612,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D4" s="9">
         <v>0.0</v>
@@ -49624,7 +49625,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G4" s="54">
         <v>5380.35</v>
@@ -49661,10 +49662,10 @@
         <v>Discussão Pública</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -49680,10 +49681,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D5" s="51">
         <v>0.0</v>
@@ -49693,7 +49694,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="G5" s="54">
         <v>600.92</v>
@@ -49730,10 +49731,10 @@
         <v>Implantação</v>
       </c>
       <c r="Q5" s="56" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="R5" s="53" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -49741,10 +49742,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D6" s="51">
         <v>0.0</v>
@@ -49754,7 +49755,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="G6" s="54">
         <v>2192.05</v>
@@ -49791,10 +49792,10 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="Q6" s="56" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="R6" s="53" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -49802,10 +49803,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D7" s="51">
         <v>0.0</v>
@@ -49815,7 +49816,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="G7" s="54">
         <v>46.45</v>
@@ -49852,10 +49853,10 @@
         <v>Implantação</v>
       </c>
       <c r="Q7" s="56" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="R7" s="53" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -49863,10 +49864,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D8" s="51">
         <v>0.0</v>
@@ -49876,7 +49877,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="G8" s="54">
         <v>6.99</v>
@@ -49913,10 +49914,10 @@
         <v>Implantação</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="R8" s="53" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
@@ -49924,10 +49925,10 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D9" s="51">
         <v>0.0</v>
@@ -49937,7 +49938,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="G9" s="54">
         <v>26.85</v>
@@ -49974,10 +49975,10 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="Q9" s="56" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1">
@@ -49985,10 +49986,10 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D10" s="51">
         <v>0.0</v>
@@ -49998,7 +49999,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="G10" s="54">
         <v>15.16</v>
@@ -50035,10 +50036,10 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="Q10" s="56" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="11" ht="9.75" customHeight="1">
@@ -50046,10 +50047,10 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D11" s="9">
         <v>0.0</v>
@@ -50059,7 +50060,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="G11" s="54">
         <v>1818.21</v>
@@ -50096,10 +50097,10 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="Q11" s="56" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="R11" s="56" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -50115,10 +50116,10 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D12" s="51">
         <v>0.0</v>
@@ -50128,7 +50129,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="G12" s="54">
         <v>1467.35</v>
@@ -50165,10 +50166,10 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="Q12" s="56" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="R12" s="53" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="13" ht="9.75" customHeight="1">
@@ -50176,10 +50177,10 @@
         <v>16.0</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D13" s="51">
         <v>0.0</v>
@@ -50189,7 +50190,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="G13" s="54">
         <v>1640.66</v>
@@ -50226,10 +50227,10 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="Q13" s="56" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="14" ht="9.75" customHeight="1">
@@ -50237,10 +50238,10 @@
         <v>17.0</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D14" s="51">
         <v>0.0</v>
@@ -50250,7 +50251,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G14" s="54">
         <v>91.96</v>
@@ -50287,10 +50288,10 @@
         <v>Suspenso</v>
       </c>
       <c r="Q14" s="56" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="R14" s="53" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="15" ht="9.75" customHeight="1">
@@ -50298,10 +50299,10 @@
         <v>18.0</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D15" s="51">
         <v>0.0</v>
@@ -50311,7 +50312,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G15" s="54">
         <v>98.06</v>
@@ -50348,10 +50349,10 @@
         <v>Suspenso</v>
       </c>
       <c r="Q15" s="56" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="R15" s="53" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="16" ht="9.75" customHeight="1">
@@ -50359,10 +50360,10 @@
         <v>19.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D16" s="51">
         <v>0.0</v>
@@ -50372,7 +50373,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G16" s="54">
         <v>98.07</v>
@@ -50409,10 +50410,10 @@
         <v>Implantação</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="R16" s="53" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="17">
@@ -50420,10 +50421,10 @@
         <v>20.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C17" s="9" t="s">
         <v>1715</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>1716</v>
       </c>
       <c r="D17" s="9">
         <v>0.0</v>
@@ -50433,7 +50434,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G17" s="54">
         <v>174.07</v>
@@ -50470,10 +50471,10 @@
         <v>Elaboração </v>
       </c>
       <c r="Q17" s="56" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="R17" s="56" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -50489,10 +50490,10 @@
         <v>21.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D18" s="9">
         <v>0.0</v>
@@ -50502,7 +50503,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="G18" s="54">
         <v>116.64</v>
@@ -50539,10 +50540,10 @@
         <v>Elaboração </v>
       </c>
       <c r="Q18" s="56" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="R18" s="56" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -50558,10 +50559,10 @@
         <v>22.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D19" s="9">
         <v>0.0</v>
@@ -50571,7 +50572,7 @@
         <v>Consulta Encerrada</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="G19" s="54">
         <v>9.47</v>
@@ -50600,18 +50601,18 @@
         <f>IFERROR(VLOOKUP(M19,proponentes!$A$2:$B$100,2,0),"0")</f>
         <v>Governo do Estado de São Paulo</v>
       </c>
-      <c r="O19" s="9">
-        <v>3.0</v>
+      <c r="O19" s="29">
+        <v>4.0</v>
       </c>
       <c r="P19" s="9" t="str">
         <f>IFERROR(VLOOKUP(O19,tramitacao!$A$2:$B$101,2,0),"0")</f>
-        <v>Avaliação SMUL</v>
+        <v>Elaboração </v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="R19" s="56" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -53854,13 +53855,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D1" s="49" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>1727</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>1728</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>2</v>
@@ -53869,7 +53870,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -53880,10 +53881,10 @@
         <f>IFERROR(VLOOKUP(A2,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D2" s="62">
+      <c r="C2" s="62" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D2" s="63">
         <v>42471.0</v>
       </c>
       <c r="E2" s="51">
@@ -53902,10 +53903,10 @@
         <f>IFERROR(VLOOKUP(A3,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="63">
         <v>42473.0</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="51">
         <v>2.0</v>
       </c>
@@ -53914,7 +53915,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -53925,8 +53926,8 @@
         <f>IFERROR(VLOOKUP(A4,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="51">
         <v>3.0</v>
       </c>
@@ -53943,8 +53944,8 @@
         <f>IFERROR(VLOOKUP(A5,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="51">
         <v>4.0</v>
       </c>
@@ -53961,8 +53962,8 @@
         <f>IFERROR(VLOOKUP(A6,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="51">
         <v>5.0</v>
       </c>
@@ -53979,8 +53980,8 @@
         <f>IFERROR(VLOOKUP(A7,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="51">
         <v>6.0</v>
       </c>
@@ -53997,8 +53998,8 @@
         <f>IFERROR(VLOOKUP(A8,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="51">
         <v>7.0</v>
       </c>
@@ -54015,8 +54016,8 @@
         <f>IFERROR(VLOOKUP(A9,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Rio Branco</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="51">
         <v>8.0</v>
       </c>
@@ -54036,7 +54037,7 @@
       <c r="C10" s="62">
         <v>42580.0</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="66">
         <v>42641.0</v>
       </c>
       <c r="E10" s="51">
@@ -54047,7 +54048,7 @@
         <v>Proposição</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="11" ht="9.75" customHeight="1">
@@ -54058,7 +54059,7 @@
         <f>IFERROR(VLOOKUP(A11,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Leopoldina</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="63">
         <v>42642.0</v>
       </c>
       <c r="D11" s="62">
@@ -54072,7 +54073,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="12" ht="9.75" customHeight="1">
@@ -54097,7 +54098,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="13" ht="9.75" customHeight="1">
@@ -54122,7 +54123,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="14" ht="9.75" customHeight="1">
@@ -54147,7 +54148,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="15" ht="9.75" customHeight="1">
@@ -54172,7 +54173,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="16" ht="9.75" customHeight="1">
@@ -54186,7 +54187,7 @@
       <c r="C16" s="62">
         <v>43644.0</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="51">
         <v>7.0</v>
       </c>
@@ -54195,7 +54196,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="17" ht="9.75" customHeight="1">
@@ -54206,8 +54207,8 @@
         <f>IFERROR(VLOOKUP(A17,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Leopoldina</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="51">
         <v>8.0</v>
       </c>
@@ -54260,7 +54261,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="20" ht="9.75" customHeight="1">
@@ -54320,7 +54321,7 @@
       <c r="C22" s="62">
         <v>43853.0</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="51">
         <v>5.0</v>
       </c>
@@ -54337,8 +54338,8 @@
         <f>IFERROR(VLOOKUP(A23,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Arco Tietê</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="51">
         <v>6.0</v>
       </c>
@@ -54355,8 +54356,8 @@
         <f>IFERROR(VLOOKUP(A24,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Arco Tietê</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="51">
         <v>7.0</v>
       </c>
@@ -54373,8 +54374,8 @@
         <f>IFERROR(VLOOKUP(A25,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Arco Tietê</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="51">
         <v>6.0</v>
       </c>
@@ -54405,7 +54406,7 @@
         <v>Proposição</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="27" ht="9.75" customHeight="1">
@@ -54430,7 +54431,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="28" ht="9.75" customHeight="1">
@@ -54455,7 +54456,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="29" ht="9.75" customHeight="1">
@@ -54480,7 +54481,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="30" ht="9.75" customHeight="1">
@@ -54505,7 +54506,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="31" ht="9.75" customHeight="1">
@@ -54530,7 +54531,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="32" ht="9.75" customHeight="1">
@@ -54555,7 +54556,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="33" ht="9.75" customHeight="1">
@@ -54569,7 +54570,7 @@
       <c r="C33" s="62">
         <v>43017.0</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="51">
         <v>8.0</v>
       </c>
@@ -54578,7 +54579,7 @@
         <v>Implantação</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="34" ht="9.75" customHeight="1">
@@ -54603,7 +54604,7 @@
         <v>Proposição</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="35" ht="9.75" customHeight="1">
@@ -54628,7 +54629,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="36" ht="9.75" customHeight="1">
@@ -54640,10 +54641,10 @@
         <v>PIU Arco Jurubatuba</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E36" s="51">
         <v>3.0</v>
@@ -54675,7 +54676,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" ht="9.75" customHeight="1">
@@ -54700,7 +54701,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" ht="9.75" customHeight="1">
@@ -54725,7 +54726,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="40" ht="9.75" customHeight="1">
@@ -54739,7 +54740,7 @@
       <c r="C40" s="62">
         <v>43217.0</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="51">
         <v>7.0</v>
       </c>
@@ -54748,7 +54749,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="41" ht="9.75" customHeight="1">
@@ -54759,8 +54760,8 @@
         <f>IFERROR(VLOOKUP(A41,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Arco Jurubatuba</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="51">
         <v>8.0</v>
       </c>
@@ -54791,7 +54792,7 @@
         <v>Proposição</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="43" ht="9.75" customHeight="1">
@@ -54816,7 +54817,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="44" ht="9.75" customHeight="1">
@@ -54827,8 +54828,8 @@
         <f>IFERROR(VLOOKUP(A44,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Anhembi</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="51">
         <v>3.0</v>
       </c>
@@ -54859,7 +54860,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="46" ht="9.75" customHeight="1">
@@ -54884,7 +54885,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="47" ht="9.75" customHeight="1">
@@ -54909,7 +54910,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="48" ht="9.75" customHeight="1">
@@ -54934,7 +54935,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="49" ht="9.75" customHeight="1">
@@ -54948,7 +54949,7 @@
       <c r="C49" s="62">
         <v>43503.0</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="51">
         <v>8.0</v>
       </c>
@@ -54957,7 +54958,7 @@
         <v>Implantação</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="50" ht="9.75" customHeight="1">
@@ -54982,7 +54983,7 @@
         <v>Proposição</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="51" ht="9.75" customHeight="1">
@@ -55007,7 +55008,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="52" ht="9.75" customHeight="1">
@@ -55032,7 +55033,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="53" ht="9.75" customHeight="1">
@@ -55057,7 +55058,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="54" ht="9.75" customHeight="1">
@@ -55082,7 +55083,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="55" ht="9.75" customHeight="1">
@@ -55107,7 +55108,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="56" ht="9.75" customHeight="1">
@@ -55132,7 +55133,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="57" ht="9.75" customHeight="1">
@@ -55146,7 +55147,7 @@
       <c r="C57" s="62">
         <v>43236.0</v>
       </c>
-      <c r="D57" s="66"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="51">
         <v>8.0</v>
       </c>
@@ -55155,7 +55156,7 @@
         <v>Implantação</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="58" ht="9.75" customHeight="1">
@@ -55180,7 +55181,7 @@
         <v>Proposição</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="59" ht="9.75" customHeight="1">
@@ -55205,7 +55206,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="60" ht="9.75" customHeight="1">
@@ -55219,7 +55220,7 @@
       <c r="C60" s="62">
         <v>43335.0</v>
       </c>
-      <c r="D60" s="64"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="51">
         <v>3.0</v>
       </c>
@@ -55228,7 +55229,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="61" ht="9.75" customHeight="1">
@@ -55239,8 +55240,8 @@
         <f>IFERROR(VLOOKUP(A61,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Olímpia</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="51">
         <v>4.0</v>
       </c>
@@ -55257,8 +55258,8 @@
         <f>IFERROR(VLOOKUP(A62,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Olímpia</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="51">
         <v>5.0</v>
       </c>
@@ -55275,8 +55276,8 @@
         <f>IFERROR(VLOOKUP(A63,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Olímpia</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
       <c r="E63" s="51">
         <v>6.0</v>
       </c>
@@ -55293,8 +55294,8 @@
         <f>IFERROR(VLOOKUP(A64,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Olímpia</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="51">
         <v>7.0</v>
       </c>
@@ -55311,8 +55312,8 @@
         <f>IFERROR(VLOOKUP(A65,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Vila Olímpia</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="51">
         <v>8.0</v>
       </c>
@@ -55329,10 +55330,10 @@
         <f>IFERROR(VLOOKUP(A66,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C66" s="62">
+      <c r="C66" s="63">
         <v>42951.0</v>
       </c>
-      <c r="D66" s="62">
+      <c r="D66" s="63">
         <v>43241.0</v>
       </c>
       <c r="E66" s="51">
@@ -55343,7 +55344,7 @@
         <v>Proposição</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="67" ht="9.75" customHeight="1">
@@ -55354,7 +55355,7 @@
         <f>IFERROR(VLOOKUP(A67,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C67" s="63">
         <v>43168.0</v>
       </c>
       <c r="D67" s="62">
@@ -55368,7 +55369,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="68" ht="9.75" customHeight="1">
@@ -55382,7 +55383,7 @@
       <c r="C68" s="62">
         <v>43314.0</v>
       </c>
-      <c r="D68" s="64"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="51">
         <v>3.0</v>
       </c>
@@ -55391,7 +55392,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="69" ht="9.75" customHeight="1">
@@ -55402,8 +55403,8 @@
         <f>IFERROR(VLOOKUP(A69,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="51">
         <v>4.0</v>
       </c>
@@ -55420,8 +55421,8 @@
         <f>IFERROR(VLOOKUP(A70,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
       <c r="E70" s="51">
         <v>5.0</v>
       </c>
@@ -55438,8 +55439,8 @@
         <f>IFERROR(VLOOKUP(A71,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="51">
         <v>6.0</v>
       </c>
@@ -55456,8 +55457,8 @@
         <f>IFERROR(VLOOKUP(A72,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="51">
         <v>7.0</v>
       </c>
@@ -55474,8 +55475,8 @@
         <f>IFERROR(VLOOKUP(A73,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Nações Unidas</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="51">
         <v>8.0</v>
       </c>
@@ -55506,7 +55507,7 @@
         <v>Proposição</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="75" ht="9.75" customHeight="1">
@@ -55531,7 +55532,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="76" ht="9.75" customHeight="1">
@@ -55556,7 +55557,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H76" s="67"/>
     </row>
@@ -55582,7 +55583,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="78" ht="9.75" customHeight="1">
@@ -55607,7 +55608,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G78" s="68" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H78" s="51"/>
     </row>
@@ -55690,7 +55691,7 @@
         <v>Proposição</v>
       </c>
       <c r="G82" s="51" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="83" ht="9.75" customHeight="1">
@@ -55715,7 +55716,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="84" ht="9.75" customHeight="1">
@@ -55740,7 +55741,7 @@
         <v>Avaliação SMUL</v>
       </c>
       <c r="G84" s="51" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="85" ht="9.75" customHeight="1">
@@ -55765,7 +55766,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="86" ht="9.75" customHeight="1">
@@ -55790,7 +55791,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="87" ht="9.75" customHeight="1">
@@ -55815,7 +55816,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="88" ht="9.75" customHeight="1">
@@ -55840,7 +55841,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="89" ht="9.75" customHeight="1">
@@ -55851,8 +55852,8 @@
         <f>IFERROR(VLOOKUP(A89,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Arco Pinheiros</v>
       </c>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
       <c r="E89" s="9">
         <v>8.0</v>
       </c>
@@ -55870,10 +55871,10 @@
         <v>Bairros Tamanduateí</v>
       </c>
       <c r="C90" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D90" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E90" s="9">
         <v>1.0</v>
@@ -55895,7 +55896,7 @@
         <v>41760.0</v>
       </c>
       <c r="D91" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E91" s="9">
         <v>2.0</v>
@@ -55914,10 +55915,10 @@
         <v>Bairros Tamanduateí</v>
       </c>
       <c r="C92" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D92" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E92" s="9">
         <v>3.0</v>
@@ -55971,7 +55972,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="95" ht="9.75" customHeight="1">
@@ -55996,7 +55997,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="96" ht="9.75" customHeight="1">
@@ -56010,7 +56011,7 @@
       <c r="C96" s="62">
         <v>42355.0</v>
       </c>
-      <c r="D96" s="64"/>
+      <c r="D96" s="65"/>
       <c r="E96" s="9">
         <v>7.0</v>
       </c>
@@ -56019,7 +56020,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="97" ht="9.75" customHeight="1">
@@ -56030,8 +56031,8 @@
         <f>IFERROR(VLOOKUP(A97,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Bairros Tamanduateí</v>
       </c>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
       <c r="E97" s="9">
         <v>8.0</v>
       </c>
@@ -56062,7 +56063,7 @@
         <v>Proposição</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="99" ht="9.75" customHeight="1">
@@ -56087,7 +56088,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="100" ht="9.75" customHeight="1">
@@ -56099,10 +56100,10 @@
         <v>PIU Terminal Capelinha</v>
       </c>
       <c r="C100" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E100" s="9">
         <v>3.0</v>
@@ -56134,7 +56135,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="102" ht="9.75" customHeight="1">
@@ -56148,7 +56149,7 @@
       <c r="C102" s="62">
         <v>43215.0</v>
       </c>
-      <c r="D102" s="64"/>
+      <c r="D102" s="65"/>
       <c r="E102" s="9">
         <v>5.0</v>
       </c>
@@ -56157,7 +56158,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="103" ht="9.75" customHeight="1">
@@ -56168,8 +56169,8 @@
         <f>IFERROR(VLOOKUP(A103,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Capelinha</v>
       </c>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
       <c r="E103" s="9">
         <v>6.0</v>
       </c>
@@ -56186,8 +56187,8 @@
         <f>IFERROR(VLOOKUP(A104,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Capelinha</v>
       </c>
-      <c r="C104" s="64"/>
-      <c r="D104" s="64"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
       <c r="E104" s="9">
         <v>7.0</v>
       </c>
@@ -56204,8 +56205,8 @@
         <f>IFERROR(VLOOKUP(A105,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Capelinha</v>
       </c>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
       <c r="E105" s="9">
         <v>8.0</v>
       </c>
@@ -56236,7 +56237,7 @@
         <v>Proposição</v>
       </c>
       <c r="G106" s="51" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="107" ht="9.75" customHeight="1">
@@ -56261,7 +56262,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="108" ht="9.75" customHeight="1">
@@ -56273,10 +56274,10 @@
         <v>PIU Terminal Campo Limpo</v>
       </c>
       <c r="C108" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E108" s="9">
         <v>3.0</v>
@@ -56308,7 +56309,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="110" ht="9.75" customHeight="1">
@@ -56322,7 +56323,7 @@
       <c r="C110" s="62">
         <v>43215.0</v>
       </c>
-      <c r="D110" s="64"/>
+      <c r="D110" s="65"/>
       <c r="E110" s="9">
         <v>5.0</v>
       </c>
@@ -56331,7 +56332,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G110" s="51" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="111" ht="9.75" customHeight="1">
@@ -56342,8 +56343,8 @@
         <f>IFERROR(VLOOKUP(A111,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Campo Limpo</v>
       </c>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
       <c r="E111" s="9">
         <v>6.0</v>
       </c>
@@ -56360,8 +56361,8 @@
         <f>IFERROR(VLOOKUP(A112,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Campo Limpo</v>
       </c>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="65"/>
       <c r="E112" s="9">
         <v>7.0</v>
       </c>
@@ -56378,8 +56379,8 @@
         <f>IFERROR(VLOOKUP(A113,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Terminal Campo Limpo</v>
       </c>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
       <c r="E113" s="9">
         <v>8.0</v>
       </c>
@@ -56410,7 +56411,7 @@
         <v>Proposição</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="115" ht="9.75" customHeight="1">
@@ -56435,7 +56436,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="116" ht="9.75" customHeight="1">
@@ -56447,10 +56448,10 @@
         <v>PIU Terminal Princesa Isabel</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D116" s="62" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E116" s="9">
         <v>3.0</v>
@@ -56482,7 +56483,7 @@
         <v>Elaboração </v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="118" ht="9.75" customHeight="1">
@@ -56507,7 +56508,7 @@
         <v>Discussão Pública</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="119" ht="9.75" customHeight="1">
@@ -56532,7 +56533,7 @@
         <v>Consolidação PIU</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="120" ht="9.75" customHeight="1">
@@ -56557,7 +56558,7 @@
         <v>Encaminhamento Jurídico</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="121" ht="9.75" customHeight="1">
@@ -56571,7 +56572,7 @@
       <c r="C121" s="62">
         <v>43333.0</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="62"/>
       <c r="E121" s="9">
         <v>8.0</v>
       </c>
@@ -56580,7 +56581,7 @@
         <v>Implantação</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="122" ht="9.75" customHeight="1">
@@ -56605,7 +56606,7 @@
         <v>Proposição</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="123" ht="9.75" customHeight="1">
@@ -56630,7 +56631,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="124" ht="9.75" customHeight="1">
@@ -56666,7 +56667,7 @@
       <c r="C125" s="62">
         <v>43889.0</v>
       </c>
-      <c r="D125" s="64"/>
+      <c r="D125" s="65"/>
       <c r="E125" s="9">
         <v>4.0</v>
       </c>
@@ -56683,8 +56684,8 @@
         <f>IFERROR(VLOOKUP(A126,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Minhocão</v>
       </c>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
       <c r="E126" s="9">
         <v>5.0</v>
       </c>
@@ -56701,8 +56702,8 @@
         <f>IFERROR(VLOOKUP(A127,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Minhocão</v>
       </c>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
       <c r="E127" s="9">
         <v>6.0</v>
       </c>
@@ -56719,8 +56720,8 @@
         <f>IFERROR(VLOOKUP(A128,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Minhocão</v>
       </c>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
       <c r="E128" s="9">
         <v>7.0</v>
       </c>
@@ -56737,8 +56738,8 @@
         <f>IFERROR(VLOOKUP(A129,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Minhocão</v>
       </c>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="65"/>
       <c r="E129" s="9">
         <v>8.0</v>
       </c>
@@ -56792,7 +56793,7 @@
         <v>Consulta Pública Inicial</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="132" ht="9.75" customHeight="1">
@@ -56828,7 +56829,7 @@
       <c r="C133" s="62">
         <v>43834.0</v>
       </c>
-      <c r="D133" s="64"/>
+      <c r="D133" s="65"/>
       <c r="E133" s="9">
         <v>4.0</v>
       </c>
@@ -56845,8 +56846,8 @@
         <f>IFERROR(VLOOKUP(A134,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Joquey Club</v>
       </c>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
       <c r="E134" s="9">
         <v>5.0</v>
       </c>
@@ -56863,8 +56864,8 @@
         <f>IFERROR(VLOOKUP(A135,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Joquey Club</v>
       </c>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
       <c r="E135" s="9">
         <v>6.0</v>
       </c>
@@ -56881,8 +56882,8 @@
         <f>IFERROR(VLOOKUP(A136,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Joquey Club</v>
       </c>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
       <c r="E136" s="9">
         <v>7.0</v>
       </c>
@@ -56899,8 +56900,8 @@
         <f>IFERROR(VLOOKUP(A137,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>Joquey Club</v>
       </c>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="65"/>
       <c r="E137" s="9">
         <v>8.0</v>
       </c>
@@ -56917,7 +56918,7 @@
         <f>IFERROR(VLOOKUP(A138,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C138" s="62">
+      <c r="C138" s="63">
         <v>43880.0</v>
       </c>
       <c r="D138" s="62">
@@ -56964,7 +56965,9 @@
       <c r="C140" s="62">
         <v>43951.0</v>
       </c>
-      <c r="D140" s="64"/>
+      <c r="D140" s="70">
+        <v>43979.0</v>
+      </c>
       <c r="E140" s="9">
         <v>3.0</v>
       </c>
@@ -56981,8 +56984,10 @@
         <f>IFERROR(VLOOKUP(A141,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
+      <c r="C141" s="70">
+        <v>43980.0</v>
+      </c>
+      <c r="D141" s="65"/>
       <c r="E141" s="9">
         <v>4.0</v>
       </c>
@@ -56999,8 +57004,8 @@
         <f>IFERROR(VLOOKUP(A142,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
       <c r="E142" s="9">
         <v>5.0</v>
       </c>
@@ -57017,8 +57022,8 @@
         <f>IFERROR(VLOOKUP(A143,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
       <c r="E143" s="9">
         <v>6.0</v>
       </c>
@@ -57035,8 +57040,8 @@
         <f>IFERROR(VLOOKUP(A144,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
       <c r="E144" s="9">
         <v>7.0</v>
       </c>
@@ -57053,8 +57058,8 @@
         <f>IFERROR(VLOOKUP(A145,projetos!$A$2:$B$96,2,0),"0")</f>
         <v>PIU Ginásio Ibirapuera</v>
       </c>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
       <c r="E145" s="9">
         <v>8.0</v>
       </c>
@@ -57065,2568 +57070,4278 @@
     </row>
     <row r="146" ht="9.75" customHeight="1">
       <c r="A146" s="9"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
     </row>
     <row r="147" ht="9.75" customHeight="1">
       <c r="A147" s="9"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="71"/>
     </row>
     <row r="148" ht="9.75" customHeight="1">
       <c r="A148" s="9"/>
+      <c r="C148" s="71"/>
+      <c r="D148" s="71"/>
     </row>
     <row r="149" ht="9.75" customHeight="1">
       <c r="A149" s="9"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="71"/>
     </row>
     <row r="150" ht="9.75" customHeight="1">
       <c r="A150" s="9"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="71"/>
     </row>
     <row r="151" ht="9.75" customHeight="1">
       <c r="A151" s="9"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
     </row>
     <row r="152" ht="9.75" customHeight="1">
       <c r="A152" s="9"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
     </row>
     <row r="153" ht="9.75" customHeight="1">
       <c r="A153" s="9"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="71"/>
     </row>
     <row r="154" ht="9.75" customHeight="1">
       <c r="A154" s="9"/>
+      <c r="C154" s="71"/>
+      <c r="D154" s="71"/>
     </row>
     <row r="155" ht="9.75" customHeight="1">
       <c r="A155" s="9"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="71"/>
     </row>
     <row r="156" ht="9.75" customHeight="1">
       <c r="A156" s="9"/>
+      <c r="C156" s="71"/>
+      <c r="D156" s="71"/>
     </row>
     <row r="157" ht="9.75" customHeight="1">
       <c r="A157" s="9"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
     </row>
     <row r="158" ht="9.75" customHeight="1">
       <c r="A158" s="9"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
     </row>
     <row r="159" ht="9.75" customHeight="1">
       <c r="A159" s="9"/>
+      <c r="C159" s="71"/>
+      <c r="D159" s="71"/>
     </row>
     <row r="160" ht="9.75" customHeight="1">
       <c r="A160" s="9"/>
+      <c r="C160" s="71"/>
+      <c r="D160" s="71"/>
     </row>
     <row r="161" ht="9.75" customHeight="1">
       <c r="A161" s="9"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
     </row>
     <row r="162" ht="9.75" customHeight="1">
       <c r="A162" s="9"/>
+      <c r="C162" s="71"/>
+      <c r="D162" s="71"/>
     </row>
     <row r="163" ht="9.75" customHeight="1">
       <c r="A163" s="9"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
     </row>
     <row r="164" ht="9.75" customHeight="1">
       <c r="A164" s="9"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
     </row>
     <row r="165" ht="9.75" customHeight="1">
       <c r="A165" s="9"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="71"/>
     </row>
     <row r="166" ht="9.75" customHeight="1">
       <c r="A166" s="9"/>
+      <c r="C166" s="71"/>
+      <c r="D166" s="71"/>
     </row>
     <row r="167" ht="9.75" customHeight="1">
       <c r="A167" s="9"/>
+      <c r="C167" s="71"/>
+      <c r="D167" s="71"/>
     </row>
     <row r="168" ht="9.75" customHeight="1">
       <c r="A168" s="9"/>
+      <c r="C168" s="71"/>
+      <c r="D168" s="71"/>
     </row>
     <row r="169" ht="9.75" customHeight="1">
       <c r="A169" s="9"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
     </row>
     <row r="170" ht="9.75" customHeight="1">
       <c r="A170" s="9"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
     </row>
     <row r="171" ht="9.75" customHeight="1">
       <c r="A171" s="9"/>
+      <c r="C171" s="71"/>
+      <c r="D171" s="71"/>
     </row>
     <row r="172" ht="9.75" customHeight="1">
       <c r="A172" s="9"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="71"/>
     </row>
     <row r="173" ht="9.75" customHeight="1">
       <c r="A173" s="9"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="71"/>
     </row>
     <row r="174" ht="9.75" customHeight="1">
       <c r="A174" s="9"/>
+      <c r="C174" s="71"/>
+      <c r="D174" s="71"/>
     </row>
     <row r="175" ht="9.75" customHeight="1">
       <c r="A175" s="9"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="71"/>
     </row>
     <row r="176" ht="9.75" customHeight="1">
       <c r="A176" s="9"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="71"/>
     </row>
     <row r="177" ht="9.75" customHeight="1">
       <c r="A177" s="9"/>
+      <c r="C177" s="71"/>
+      <c r="D177" s="71"/>
     </row>
     <row r="178" ht="9.75" customHeight="1">
       <c r="A178" s="9"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="71"/>
     </row>
     <row r="179" ht="9.75" customHeight="1">
       <c r="A179" s="9"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
     </row>
     <row r="180" ht="9.75" customHeight="1">
       <c r="A180" s="9"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="71"/>
     </row>
     <row r="181" ht="9.75" customHeight="1">
       <c r="A181" s="9"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
     </row>
     <row r="182" ht="9.75" customHeight="1">
       <c r="A182" s="9"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
     </row>
     <row r="183" ht="9.75" customHeight="1">
       <c r="A183" s="9"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
     </row>
     <row r="184" ht="9.75" customHeight="1">
       <c r="A184" s="9"/>
+      <c r="C184" s="71"/>
+      <c r="D184" s="71"/>
     </row>
     <row r="185" ht="9.75" customHeight="1">
       <c r="A185" s="9"/>
+      <c r="C185" s="71"/>
+      <c r="D185" s="71"/>
     </row>
     <row r="186" ht="9.75" customHeight="1">
       <c r="A186" s="9"/>
+      <c r="C186" s="71"/>
+      <c r="D186" s="71"/>
     </row>
     <row r="187" ht="9.75" customHeight="1">
       <c r="A187" s="9"/>
+      <c r="C187" s="71"/>
+      <c r="D187" s="71"/>
     </row>
     <row r="188" ht="9.75" customHeight="1">
       <c r="A188" s="9"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="71"/>
     </row>
     <row r="189" ht="9.75" customHeight="1">
       <c r="A189" s="9"/>
+      <c r="C189" s="71"/>
+      <c r="D189" s="71"/>
     </row>
     <row r="190" ht="9.75" customHeight="1">
       <c r="A190" s="9"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="71"/>
     </row>
     <row r="191" ht="9.75" customHeight="1">
       <c r="A191" s="9"/>
+      <c r="C191" s="71"/>
+      <c r="D191" s="71"/>
     </row>
     <row r="192" ht="9.75" customHeight="1">
       <c r="A192" s="9"/>
+      <c r="C192" s="71"/>
+      <c r="D192" s="71"/>
     </row>
     <row r="193" ht="9.75" customHeight="1">
       <c r="A193" s="9"/>
+      <c r="C193" s="71"/>
+      <c r="D193" s="71"/>
     </row>
     <row r="194" ht="9.75" customHeight="1">
       <c r="A194" s="9"/>
+      <c r="C194" s="71"/>
+      <c r="D194" s="71"/>
     </row>
     <row r="195" ht="9.75" customHeight="1">
       <c r="A195" s="9"/>
+      <c r="C195" s="71"/>
+      <c r="D195" s="71"/>
     </row>
     <row r="196" ht="9.75" customHeight="1">
       <c r="A196" s="9"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
     </row>
     <row r="197" ht="9.75" customHeight="1">
       <c r="A197" s="9"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
     </row>
     <row r="198" ht="9.75" customHeight="1">
       <c r="A198" s="9"/>
+      <c r="C198" s="71"/>
+      <c r="D198" s="71"/>
     </row>
     <row r="199" ht="9.75" customHeight="1">
       <c r="A199" s="9"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="71"/>
     </row>
     <row r="200" ht="9.75" customHeight="1">
       <c r="A200" s="9"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="71"/>
     </row>
     <row r="201" ht="9.75" customHeight="1">
       <c r="A201" s="9"/>
+      <c r="C201" s="71"/>
+      <c r="D201" s="71"/>
     </row>
     <row r="202" ht="9.75" customHeight="1">
       <c r="A202" s="9"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="71"/>
     </row>
     <row r="203" ht="9.75" customHeight="1">
       <c r="A203" s="9"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="71"/>
     </row>
     <row r="204" ht="9.75" customHeight="1">
       <c r="A204" s="9"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="71"/>
     </row>
     <row r="205" ht="9.75" customHeight="1">
       <c r="A205" s="9"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="71"/>
     </row>
     <row r="206" ht="9.75" customHeight="1">
       <c r="A206" s="9"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="71"/>
     </row>
     <row r="207" ht="9.75" customHeight="1">
       <c r="A207" s="9"/>
+      <c r="C207" s="71"/>
+      <c r="D207" s="71"/>
     </row>
     <row r="208" ht="9.75" customHeight="1">
       <c r="A208" s="9"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="71"/>
     </row>
     <row r="209" ht="9.75" customHeight="1">
       <c r="A209" s="9"/>
+      <c r="C209" s="71"/>
+      <c r="D209" s="71"/>
     </row>
     <row r="210" ht="9.75" customHeight="1">
       <c r="A210" s="9"/>
+      <c r="C210" s="71"/>
+      <c r="D210" s="71"/>
     </row>
     <row r="211" ht="9.75" customHeight="1">
       <c r="A211" s="9"/>
+      <c r="C211" s="71"/>
+      <c r="D211" s="71"/>
     </row>
     <row r="212" ht="9.75" customHeight="1">
       <c r="A212" s="9"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="71"/>
     </row>
     <row r="213" ht="9.75" customHeight="1">
       <c r="A213" s="9"/>
+      <c r="C213" s="71"/>
+      <c r="D213" s="71"/>
     </row>
     <row r="214" ht="9.75" customHeight="1">
       <c r="A214" s="9"/>
+      <c r="C214" s="71"/>
+      <c r="D214" s="71"/>
     </row>
     <row r="215" ht="9.75" customHeight="1">
       <c r="A215" s="9"/>
+      <c r="C215" s="71"/>
+      <c r="D215" s="71"/>
     </row>
     <row r="216" ht="9.75" customHeight="1">
       <c r="A216" s="9"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="71"/>
     </row>
     <row r="217" ht="9.75" customHeight="1">
       <c r="A217" s="9"/>
+      <c r="C217" s="71"/>
+      <c r="D217" s="71"/>
     </row>
     <row r="218" ht="9.75" customHeight="1">
       <c r="A218" s="9"/>
+      <c r="C218" s="71"/>
+      <c r="D218" s="71"/>
     </row>
     <row r="219" ht="9.75" customHeight="1">
       <c r="A219" s="9"/>
+      <c r="C219" s="71"/>
+      <c r="D219" s="71"/>
     </row>
     <row r="220" ht="9.75" customHeight="1">
       <c r="A220" s="9"/>
+      <c r="C220" s="71"/>
+      <c r="D220" s="71"/>
     </row>
     <row r="221" ht="9.75" customHeight="1">
       <c r="A221" s="9"/>
+      <c r="C221" s="71"/>
+      <c r="D221" s="71"/>
     </row>
     <row r="222" ht="9.75" customHeight="1">
       <c r="A222" s="9"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
     </row>
     <row r="223" ht="9.75" customHeight="1">
       <c r="A223" s="9"/>
+      <c r="C223" s="71"/>
+      <c r="D223" s="71"/>
     </row>
     <row r="224" ht="9.75" customHeight="1">
       <c r="A224" s="9"/>
+      <c r="C224" s="71"/>
+      <c r="D224" s="71"/>
     </row>
     <row r="225" ht="9.75" customHeight="1">
       <c r="A225" s="9"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="71"/>
     </row>
     <row r="226" ht="9.75" customHeight="1">
       <c r="A226" s="9"/>
+      <c r="C226" s="71"/>
+      <c r="D226" s="71"/>
     </row>
     <row r="227" ht="9.75" customHeight="1">
       <c r="A227" s="9"/>
+      <c r="C227" s="71"/>
+      <c r="D227" s="71"/>
     </row>
     <row r="228" ht="9.75" customHeight="1">
       <c r="A228" s="9"/>
+      <c r="C228" s="71"/>
+      <c r="D228" s="71"/>
     </row>
     <row r="229" ht="9.75" customHeight="1">
       <c r="A229" s="9"/>
+      <c r="C229" s="71"/>
+      <c r="D229" s="71"/>
     </row>
     <row r="230" ht="9.75" customHeight="1">
       <c r="A230" s="9"/>
+      <c r="C230" s="71"/>
+      <c r="D230" s="71"/>
     </row>
     <row r="231" ht="9.75" customHeight="1">
       <c r="A231" s="9"/>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
     </row>
     <row r="232" ht="9.75" customHeight="1">
       <c r="A232" s="9"/>
+      <c r="C232" s="71"/>
+      <c r="D232" s="71"/>
     </row>
     <row r="233" ht="9.75" customHeight="1">
       <c r="A233" s="9"/>
+      <c r="C233" s="71"/>
+      <c r="D233" s="71"/>
     </row>
     <row r="234" ht="9.75" customHeight="1">
       <c r="A234" s="9"/>
+      <c r="C234" s="71"/>
+      <c r="D234" s="71"/>
     </row>
     <row r="235" ht="9.75" customHeight="1">
       <c r="A235" s="9"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="71"/>
     </row>
     <row r="236" ht="9.75" customHeight="1">
       <c r="A236" s="9"/>
+      <c r="C236" s="71"/>
+      <c r="D236" s="71"/>
     </row>
     <row r="237" ht="9.75" customHeight="1">
       <c r="A237" s="9"/>
+      <c r="C237" s="71"/>
+      <c r="D237" s="71"/>
     </row>
     <row r="238" ht="9.75" customHeight="1">
       <c r="A238" s="9"/>
+      <c r="C238" s="71"/>
+      <c r="D238" s="71"/>
     </row>
     <row r="239" ht="9.75" customHeight="1">
       <c r="A239" s="9"/>
+      <c r="C239" s="71"/>
+      <c r="D239" s="71"/>
     </row>
     <row r="240" ht="9.75" customHeight="1">
       <c r="A240" s="9"/>
+      <c r="C240" s="71"/>
+      <c r="D240" s="71"/>
     </row>
     <row r="241" ht="9.75" customHeight="1">
       <c r="A241" s="9"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="71"/>
     </row>
     <row r="242" ht="9.75" customHeight="1">
       <c r="A242" s="9"/>
+      <c r="C242" s="71"/>
+      <c r="D242" s="71"/>
     </row>
     <row r="243" ht="9.75" customHeight="1">
       <c r="A243" s="9"/>
+      <c r="C243" s="71"/>
+      <c r="D243" s="71"/>
     </row>
     <row r="244" ht="9.75" customHeight="1">
       <c r="A244" s="9"/>
+      <c r="C244" s="71"/>
+      <c r="D244" s="71"/>
     </row>
     <row r="245" ht="9.75" customHeight="1">
       <c r="A245" s="9"/>
+      <c r="C245" s="71"/>
+      <c r="D245" s="71"/>
     </row>
     <row r="246" ht="9.75" customHeight="1">
       <c r="A246" s="9"/>
+      <c r="C246" s="71"/>
+      <c r="D246" s="71"/>
     </row>
     <row r="247" ht="9.75" customHeight="1">
       <c r="A247" s="9"/>
+      <c r="C247" s="71"/>
+      <c r="D247" s="71"/>
     </row>
     <row r="248" ht="9.75" customHeight="1">
       <c r="A248" s="9"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
     </row>
     <row r="249" ht="9.75" customHeight="1">
       <c r="A249" s="9"/>
+      <c r="C249" s="71"/>
+      <c r="D249" s="71"/>
     </row>
     <row r="250" ht="9.75" customHeight="1">
       <c r="A250" s="9"/>
+      <c r="C250" s="71"/>
+      <c r="D250" s="71"/>
     </row>
     <row r="251" ht="9.75" customHeight="1">
       <c r="A251" s="9"/>
+      <c r="C251" s="71"/>
+      <c r="D251" s="71"/>
     </row>
     <row r="252" ht="9.75" customHeight="1">
       <c r="A252" s="9"/>
+      <c r="C252" s="71"/>
+      <c r="D252" s="71"/>
     </row>
     <row r="253" ht="9.75" customHeight="1">
       <c r="A253" s="9"/>
+      <c r="C253" s="71"/>
+      <c r="D253" s="71"/>
     </row>
     <row r="254" ht="9.75" customHeight="1">
       <c r="A254" s="9"/>
+      <c r="C254" s="71"/>
+      <c r="D254" s="71"/>
     </row>
     <row r="255" ht="9.75" customHeight="1">
       <c r="A255" s="9"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="71"/>
     </row>
     <row r="256" ht="9.75" customHeight="1">
       <c r="A256" s="9"/>
+      <c r="C256" s="71"/>
+      <c r="D256" s="71"/>
     </row>
     <row r="257" ht="9.75" customHeight="1">
       <c r="A257" s="9"/>
+      <c r="C257" s="71"/>
+      <c r="D257" s="71"/>
     </row>
     <row r="258" ht="9.75" customHeight="1">
       <c r="A258" s="9"/>
+      <c r="C258" s="71"/>
+      <c r="D258" s="71"/>
     </row>
     <row r="259" ht="9.75" customHeight="1">
       <c r="A259" s="9"/>
+      <c r="C259" s="71"/>
+      <c r="D259" s="71"/>
     </row>
     <row r="260" ht="9.75" customHeight="1">
       <c r="A260" s="9"/>
+      <c r="C260" s="71"/>
+      <c r="D260" s="71"/>
     </row>
     <row r="261" ht="9.75" customHeight="1">
       <c r="A261" s="9"/>
+      <c r="C261" s="71"/>
+      <c r="D261" s="71"/>
     </row>
     <row r="262" ht="9.75" customHeight="1">
       <c r="A262" s="9"/>
+      <c r="C262" s="71"/>
+      <c r="D262" s="71"/>
     </row>
     <row r="263" ht="9.75" customHeight="1">
       <c r="A263" s="9"/>
+      <c r="C263" s="71"/>
+      <c r="D263" s="71"/>
     </row>
     <row r="264" ht="9.75" customHeight="1">
       <c r="A264" s="9"/>
+      <c r="C264" s="71"/>
+      <c r="D264" s="71"/>
     </row>
     <row r="265" ht="9.75" customHeight="1">
       <c r="A265" s="9"/>
+      <c r="C265" s="71"/>
+      <c r="D265" s="71"/>
     </row>
     <row r="266" ht="9.75" customHeight="1">
       <c r="A266" s="9"/>
+      <c r="C266" s="71"/>
+      <c r="D266" s="71"/>
     </row>
     <row r="267" ht="9.75" customHeight="1">
       <c r="A267" s="9"/>
+      <c r="C267" s="71"/>
+      <c r="D267" s="71"/>
     </row>
     <row r="268" ht="9.75" customHeight="1">
       <c r="A268" s="9"/>
+      <c r="C268" s="71"/>
+      <c r="D268" s="71"/>
     </row>
     <row r="269" ht="9.75" customHeight="1">
       <c r="A269" s="9"/>
+      <c r="C269" s="71"/>
+      <c r="D269" s="71"/>
     </row>
     <row r="270" ht="9.75" customHeight="1">
       <c r="A270" s="9"/>
+      <c r="C270" s="71"/>
+      <c r="D270" s="71"/>
     </row>
     <row r="271" ht="9.75" customHeight="1">
       <c r="A271" s="9"/>
+      <c r="C271" s="71"/>
+      <c r="D271" s="71"/>
     </row>
     <row r="272" ht="9.75" customHeight="1">
       <c r="A272" s="9"/>
+      <c r="C272" s="71"/>
+      <c r="D272" s="71"/>
     </row>
     <row r="273" ht="9.75" customHeight="1">
       <c r="A273" s="9"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
     </row>
     <row r="274" ht="9.75" customHeight="1">
       <c r="A274" s="9"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="71"/>
     </row>
     <row r="275" ht="9.75" customHeight="1">
       <c r="A275" s="9"/>
+      <c r="C275" s="71"/>
+      <c r="D275" s="71"/>
     </row>
     <row r="276" ht="9.75" customHeight="1">
       <c r="A276" s="9"/>
+      <c r="C276" s="71"/>
+      <c r="D276" s="71"/>
     </row>
     <row r="277" ht="9.75" customHeight="1">
       <c r="A277" s="9"/>
+      <c r="C277" s="71"/>
+      <c r="D277" s="71"/>
     </row>
     <row r="278" ht="9.75" customHeight="1">
       <c r="A278" s="9"/>
+      <c r="C278" s="71"/>
+      <c r="D278" s="71"/>
     </row>
     <row r="279" ht="9.75" customHeight="1">
       <c r="A279" s="9"/>
+      <c r="C279" s="71"/>
+      <c r="D279" s="71"/>
     </row>
     <row r="280" ht="9.75" customHeight="1">
       <c r="A280" s="9"/>
+      <c r="C280" s="71"/>
+      <c r="D280" s="71"/>
     </row>
     <row r="281" ht="9.75" customHeight="1">
       <c r="A281" s="9"/>
+      <c r="C281" s="71"/>
+      <c r="D281" s="71"/>
     </row>
     <row r="282" ht="9.75" customHeight="1">
       <c r="A282" s="9"/>
+      <c r="C282" s="71"/>
+      <c r="D282" s="71"/>
     </row>
     <row r="283" ht="9.75" customHeight="1">
       <c r="A283" s="9"/>
+      <c r="C283" s="71"/>
+      <c r="D283" s="71"/>
     </row>
     <row r="284" ht="9.75" customHeight="1">
       <c r="A284" s="9"/>
+      <c r="C284" s="71"/>
+      <c r="D284" s="71"/>
     </row>
     <row r="285" ht="9.75" customHeight="1">
       <c r="A285" s="9"/>
+      <c r="C285" s="71"/>
+      <c r="D285" s="71"/>
     </row>
     <row r="286" ht="9.75" customHeight="1">
       <c r="A286" s="9"/>
+      <c r="C286" s="71"/>
+      <c r="D286" s="71"/>
     </row>
     <row r="287" ht="9.75" customHeight="1">
       <c r="A287" s="9"/>
+      <c r="C287" s="71"/>
+      <c r="D287" s="71"/>
     </row>
     <row r="288" ht="9.75" customHeight="1">
       <c r="A288" s="9"/>
+      <c r="C288" s="71"/>
+      <c r="D288" s="71"/>
     </row>
     <row r="289" ht="9.75" customHeight="1">
       <c r="A289" s="9"/>
+      <c r="C289" s="71"/>
+      <c r="D289" s="71"/>
     </row>
     <row r="290" ht="9.75" customHeight="1">
       <c r="A290" s="9"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
     </row>
     <row r="291" ht="9.75" customHeight="1">
       <c r="A291" s="9"/>
+      <c r="C291" s="71"/>
+      <c r="D291" s="71"/>
     </row>
     <row r="292" ht="9.75" customHeight="1">
       <c r="A292" s="9"/>
+      <c r="C292" s="71"/>
+      <c r="D292" s="71"/>
     </row>
     <row r="293" ht="9.75" customHeight="1">
       <c r="A293" s="9"/>
+      <c r="C293" s="71"/>
+      <c r="D293" s="71"/>
     </row>
     <row r="294" ht="9.75" customHeight="1">
       <c r="A294" s="9"/>
+      <c r="C294" s="71"/>
+      <c r="D294" s="71"/>
     </row>
     <row r="295" ht="9.75" customHeight="1">
       <c r="A295" s="9"/>
+      <c r="C295" s="71"/>
+      <c r="D295" s="71"/>
     </row>
     <row r="296" ht="9.75" customHeight="1">
       <c r="A296" s="9"/>
+      <c r="C296" s="71"/>
+      <c r="D296" s="71"/>
     </row>
     <row r="297" ht="9.75" customHeight="1">
       <c r="A297" s="9"/>
+      <c r="C297" s="71"/>
+      <c r="D297" s="71"/>
     </row>
     <row r="298" ht="9.75" customHeight="1">
       <c r="A298" s="9"/>
+      <c r="C298" s="71"/>
+      <c r="D298" s="71"/>
     </row>
     <row r="299" ht="9.75" customHeight="1">
       <c r="A299" s="9"/>
+      <c r="C299" s="71"/>
+      <c r="D299" s="71"/>
     </row>
     <row r="300" ht="9.75" customHeight="1">
       <c r="A300" s="9"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
     </row>
     <row r="301" ht="9.75" customHeight="1">
       <c r="A301" s="9"/>
+      <c r="C301" s="71"/>
+      <c r="D301" s="71"/>
     </row>
     <row r="302" ht="9.75" customHeight="1">
       <c r="A302" s="9"/>
+      <c r="C302" s="71"/>
+      <c r="D302" s="71"/>
     </row>
     <row r="303" ht="9.75" customHeight="1">
       <c r="A303" s="9"/>
+      <c r="C303" s="71"/>
+      <c r="D303" s="71"/>
     </row>
     <row r="304" ht="9.75" customHeight="1">
       <c r="A304" s="9"/>
+      <c r="C304" s="71"/>
+      <c r="D304" s="71"/>
     </row>
     <row r="305" ht="9.75" customHeight="1">
       <c r="A305" s="9"/>
+      <c r="C305" s="71"/>
+      <c r="D305" s="71"/>
     </row>
     <row r="306" ht="9.75" customHeight="1">
       <c r="A306" s="9"/>
+      <c r="C306" s="71"/>
+      <c r="D306" s="71"/>
     </row>
     <row r="307" ht="9.75" customHeight="1">
       <c r="A307" s="9"/>
+      <c r="C307" s="71"/>
+      <c r="D307" s="71"/>
     </row>
     <row r="308" ht="9.75" customHeight="1">
       <c r="A308" s="9"/>
+      <c r="C308" s="71"/>
+      <c r="D308" s="71"/>
     </row>
     <row r="309" ht="9.75" customHeight="1">
       <c r="A309" s="9"/>
+      <c r="C309" s="71"/>
+      <c r="D309" s="71"/>
     </row>
     <row r="310" ht="9.75" customHeight="1">
       <c r="A310" s="9"/>
+      <c r="C310" s="71"/>
+      <c r="D310" s="71"/>
     </row>
     <row r="311" ht="9.75" customHeight="1">
       <c r="A311" s="9"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
     </row>
     <row r="312" ht="9.75" customHeight="1">
       <c r="A312" s="9"/>
+      <c r="C312" s="71"/>
+      <c r="D312" s="71"/>
     </row>
     <row r="313" ht="9.75" customHeight="1">
       <c r="A313" s="9"/>
+      <c r="C313" s="71"/>
+      <c r="D313" s="71"/>
     </row>
     <row r="314" ht="9.75" customHeight="1">
       <c r="A314" s="9"/>
+      <c r="C314" s="71"/>
+      <c r="D314" s="71"/>
     </row>
     <row r="315" ht="9.75" customHeight="1">
       <c r="A315" s="9"/>
+      <c r="C315" s="71"/>
+      <c r="D315" s="71"/>
     </row>
     <row r="316" ht="9.75" customHeight="1">
       <c r="A316" s="9"/>
+      <c r="C316" s="71"/>
+      <c r="D316" s="71"/>
     </row>
     <row r="317" ht="9.75" customHeight="1">
       <c r="A317" s="9"/>
+      <c r="C317" s="71"/>
+      <c r="D317" s="71"/>
     </row>
     <row r="318" ht="9.75" customHeight="1">
       <c r="A318" s="9"/>
+      <c r="C318" s="71"/>
+      <c r="D318" s="71"/>
     </row>
     <row r="319" ht="9.75" customHeight="1">
       <c r="A319" s="9"/>
+      <c r="C319" s="71"/>
+      <c r="D319" s="71"/>
     </row>
     <row r="320" ht="9.75" customHeight="1">
       <c r="A320" s="9"/>
+      <c r="C320" s="71"/>
+      <c r="D320" s="71"/>
     </row>
     <row r="321" ht="9.75" customHeight="1">
       <c r="A321" s="9"/>
+      <c r="C321" s="71"/>
+      <c r="D321" s="71"/>
     </row>
     <row r="322" ht="9.75" customHeight="1">
       <c r="A322" s="9"/>
+      <c r="C322" s="71"/>
+      <c r="D322" s="71"/>
     </row>
     <row r="323" ht="9.75" customHeight="1">
       <c r="A323" s="9"/>
+      <c r="C323" s="71"/>
+      <c r="D323" s="71"/>
     </row>
     <row r="324" ht="9.75" customHeight="1">
       <c r="A324" s="9"/>
+      <c r="C324" s="71"/>
+      <c r="D324" s="71"/>
     </row>
     <row r="325" ht="9.75" customHeight="1">
       <c r="A325" s="9"/>
+      <c r="C325" s="71"/>
+      <c r="D325" s="71"/>
     </row>
     <row r="326" ht="9.75" customHeight="1">
       <c r="A326" s="9"/>
+      <c r="C326" s="71"/>
+      <c r="D326" s="71"/>
     </row>
     <row r="327" ht="9.75" customHeight="1">
       <c r="A327" s="9"/>
+      <c r="C327" s="71"/>
+      <c r="D327" s="71"/>
     </row>
     <row r="328" ht="9.75" customHeight="1">
       <c r="A328" s="9"/>
+      <c r="C328" s="71"/>
+      <c r="D328" s="71"/>
     </row>
     <row r="329" ht="9.75" customHeight="1">
       <c r="A329" s="9"/>
+      <c r="C329" s="71"/>
+      <c r="D329" s="71"/>
     </row>
     <row r="330" ht="9.75" customHeight="1">
       <c r="A330" s="9"/>
+      <c r="C330" s="71"/>
+      <c r="D330" s="71"/>
     </row>
     <row r="331" ht="9.75" customHeight="1">
       <c r="A331" s="9"/>
+      <c r="C331" s="71"/>
+      <c r="D331" s="71"/>
     </row>
     <row r="332" ht="9.75" customHeight="1">
       <c r="A332" s="9"/>
+      <c r="C332" s="71"/>
+      <c r="D332" s="71"/>
     </row>
     <row r="333" ht="9.75" customHeight="1">
       <c r="A333" s="9"/>
+      <c r="C333" s="71"/>
+      <c r="D333" s="71"/>
     </row>
     <row r="334" ht="9.75" customHeight="1">
       <c r="A334" s="9"/>
+      <c r="C334" s="71"/>
+      <c r="D334" s="71"/>
     </row>
     <row r="335" ht="9.75" customHeight="1">
       <c r="A335" s="9"/>
+      <c r="C335" s="71"/>
+      <c r="D335" s="71"/>
     </row>
     <row r="336" ht="9.75" customHeight="1">
       <c r="A336" s="9"/>
+      <c r="C336" s="71"/>
+      <c r="D336" s="71"/>
     </row>
     <row r="337" ht="9.75" customHeight="1">
       <c r="A337" s="9"/>
+      <c r="C337" s="71"/>
+      <c r="D337" s="71"/>
     </row>
     <row r="338" ht="9.75" customHeight="1">
       <c r="A338" s="9"/>
+      <c r="C338" s="71"/>
+      <c r="D338" s="71"/>
     </row>
     <row r="339" ht="9.75" customHeight="1">
       <c r="A339" s="9"/>
+      <c r="C339" s="71"/>
+      <c r="D339" s="71"/>
     </row>
     <row r="340" ht="9.75" customHeight="1">
       <c r="A340" s="9"/>
+      <c r="C340" s="71"/>
+      <c r="D340" s="71"/>
     </row>
     <row r="341" ht="9.75" customHeight="1">
       <c r="A341" s="9"/>
+      <c r="C341" s="71"/>
+      <c r="D341" s="71"/>
     </row>
     <row r="342" ht="9.75" customHeight="1">
       <c r="A342" s="9"/>
+      <c r="C342" s="71"/>
+      <c r="D342" s="71"/>
     </row>
     <row r="343" ht="9.75" customHeight="1">
       <c r="A343" s="9"/>
+      <c r="C343" s="71"/>
+      <c r="D343" s="71"/>
     </row>
     <row r="344" ht="9.75" customHeight="1">
       <c r="A344" s="9"/>
+      <c r="C344" s="71"/>
+      <c r="D344" s="71"/>
     </row>
     <row r="345" ht="9.75" customHeight="1">
       <c r="A345" s="9"/>
+      <c r="C345" s="71"/>
+      <c r="D345" s="71"/>
     </row>
     <row r="346" ht="9.75" customHeight="1">
       <c r="A346" s="9"/>
+      <c r="C346" s="71"/>
+      <c r="D346" s="71"/>
     </row>
     <row r="347" ht="9.75" customHeight="1">
       <c r="A347" s="9"/>
+      <c r="C347" s="71"/>
+      <c r="D347" s="71"/>
     </row>
     <row r="348" ht="9.75" customHeight="1">
       <c r="A348" s="9"/>
+      <c r="C348" s="71"/>
+      <c r="D348" s="71"/>
     </row>
     <row r="349" ht="9.75" customHeight="1">
       <c r="A349" s="9"/>
+      <c r="C349" s="71"/>
+      <c r="D349" s="71"/>
     </row>
     <row r="350" ht="9.75" customHeight="1">
       <c r="A350" s="9"/>
+      <c r="C350" s="71"/>
+      <c r="D350" s="71"/>
     </row>
     <row r="351" ht="9.75" customHeight="1">
       <c r="A351" s="9"/>
+      <c r="C351" s="71"/>
+      <c r="D351" s="71"/>
     </row>
     <row r="352" ht="9.75" customHeight="1">
       <c r="A352" s="9"/>
+      <c r="C352" s="71"/>
+      <c r="D352" s="71"/>
     </row>
     <row r="353" ht="9.75" customHeight="1">
       <c r="A353" s="9"/>
+      <c r="C353" s="71"/>
+      <c r="D353" s="71"/>
     </row>
     <row r="354" ht="9.75" customHeight="1">
       <c r="A354" s="9"/>
+      <c r="C354" s="71"/>
+      <c r="D354" s="71"/>
     </row>
     <row r="355" ht="9.75" customHeight="1">
       <c r="A355" s="9"/>
+      <c r="C355" s="71"/>
+      <c r="D355" s="71"/>
     </row>
     <row r="356" ht="9.75" customHeight="1">
       <c r="A356" s="9"/>
+      <c r="C356" s="71"/>
+      <c r="D356" s="71"/>
     </row>
     <row r="357" ht="9.75" customHeight="1">
       <c r="A357" s="9"/>
+      <c r="C357" s="71"/>
+      <c r="D357" s="71"/>
     </row>
     <row r="358" ht="9.75" customHeight="1">
       <c r="A358" s="9"/>
+      <c r="C358" s="71"/>
+      <c r="D358" s="71"/>
     </row>
     <row r="359" ht="9.75" customHeight="1">
       <c r="A359" s="9"/>
+      <c r="C359" s="71"/>
+      <c r="D359" s="71"/>
     </row>
     <row r="360" ht="9.75" customHeight="1">
       <c r="A360" s="9"/>
+      <c r="C360" s="71"/>
+      <c r="D360" s="71"/>
     </row>
     <row r="361" ht="9.75" customHeight="1">
       <c r="A361" s="9"/>
+      <c r="C361" s="71"/>
+      <c r="D361" s="71"/>
     </row>
     <row r="362" ht="9.75" customHeight="1">
       <c r="A362" s="9"/>
+      <c r="C362" s="71"/>
+      <c r="D362" s="71"/>
     </row>
     <row r="363" ht="9.75" customHeight="1">
       <c r="A363" s="9"/>
+      <c r="C363" s="71"/>
+      <c r="D363" s="71"/>
     </row>
     <row r="364" ht="9.75" customHeight="1">
       <c r="A364" s="9"/>
+      <c r="C364" s="71"/>
+      <c r="D364" s="71"/>
     </row>
     <row r="365" ht="9.75" customHeight="1">
       <c r="A365" s="9"/>
+      <c r="C365" s="71"/>
+      <c r="D365" s="71"/>
     </row>
     <row r="366" ht="9.75" customHeight="1">
       <c r="A366" s="9"/>
+      <c r="C366" s="71"/>
+      <c r="D366" s="71"/>
     </row>
     <row r="367" ht="9.75" customHeight="1">
       <c r="A367" s="9"/>
+      <c r="C367" s="71"/>
+      <c r="D367" s="71"/>
     </row>
     <row r="368" ht="9.75" customHeight="1">
       <c r="A368" s="9"/>
+      <c r="C368" s="71"/>
+      <c r="D368" s="71"/>
     </row>
     <row r="369" ht="9.75" customHeight="1">
       <c r="A369" s="9"/>
+      <c r="C369" s="71"/>
+      <c r="D369" s="71"/>
     </row>
     <row r="370" ht="9.75" customHeight="1">
       <c r="A370" s="9"/>
+      <c r="C370" s="71"/>
+      <c r="D370" s="71"/>
     </row>
     <row r="371" ht="9.75" customHeight="1">
       <c r="A371" s="9"/>
+      <c r="C371" s="71"/>
+      <c r="D371" s="71"/>
     </row>
     <row r="372" ht="9.75" customHeight="1">
       <c r="A372" s="9"/>
+      <c r="C372" s="71"/>
+      <c r="D372" s="71"/>
     </row>
     <row r="373" ht="9.75" customHeight="1">
       <c r="A373" s="9"/>
+      <c r="C373" s="71"/>
+      <c r="D373" s="71"/>
     </row>
     <row r="374" ht="9.75" customHeight="1">
       <c r="A374" s="9"/>
+      <c r="C374" s="71"/>
+      <c r="D374" s="71"/>
     </row>
     <row r="375" ht="9.75" customHeight="1">
       <c r="A375" s="9"/>
+      <c r="C375" s="71"/>
+      <c r="D375" s="71"/>
     </row>
     <row r="376" ht="9.75" customHeight="1">
       <c r="A376" s="9"/>
+      <c r="C376" s="71"/>
+      <c r="D376" s="71"/>
     </row>
     <row r="377" ht="9.75" customHeight="1">
       <c r="A377" s="9"/>
+      <c r="C377" s="71"/>
+      <c r="D377" s="71"/>
     </row>
     <row r="378" ht="9.75" customHeight="1">
       <c r="A378" s="9"/>
+      <c r="C378" s="71"/>
+      <c r="D378" s="71"/>
     </row>
     <row r="379" ht="9.75" customHeight="1">
       <c r="A379" s="9"/>
+      <c r="C379" s="71"/>
+      <c r="D379" s="71"/>
     </row>
     <row r="380" ht="9.75" customHeight="1">
       <c r="A380" s="9"/>
+      <c r="C380" s="71"/>
+      <c r="D380" s="71"/>
     </row>
     <row r="381" ht="9.75" customHeight="1">
       <c r="A381" s="9"/>
+      <c r="C381" s="71"/>
+      <c r="D381" s="71"/>
     </row>
     <row r="382" ht="9.75" customHeight="1">
       <c r="A382" s="9"/>
+      <c r="C382" s="71"/>
+      <c r="D382" s="71"/>
     </row>
     <row r="383" ht="9.75" customHeight="1">
       <c r="A383" s="9"/>
+      <c r="C383" s="71"/>
+      <c r="D383" s="71"/>
     </row>
     <row r="384" ht="9.75" customHeight="1">
       <c r="A384" s="9"/>
+      <c r="C384" s="71"/>
+      <c r="D384" s="71"/>
     </row>
     <row r="385" ht="9.75" customHeight="1">
       <c r="A385" s="9"/>
+      <c r="C385" s="71"/>
+      <c r="D385" s="71"/>
     </row>
     <row r="386" ht="9.75" customHeight="1">
       <c r="A386" s="9"/>
+      <c r="C386" s="71"/>
+      <c r="D386" s="71"/>
     </row>
     <row r="387" ht="9.75" customHeight="1">
       <c r="A387" s="9"/>
+      <c r="C387" s="71"/>
+      <c r="D387" s="71"/>
     </row>
     <row r="388" ht="9.75" customHeight="1">
       <c r="A388" s="9"/>
+      <c r="C388" s="71"/>
+      <c r="D388" s="71"/>
     </row>
     <row r="389" ht="9.75" customHeight="1">
       <c r="A389" s="9"/>
+      <c r="C389" s="71"/>
+      <c r="D389" s="71"/>
     </row>
     <row r="390" ht="9.75" customHeight="1">
       <c r="A390" s="9"/>
+      <c r="C390" s="71"/>
+      <c r="D390" s="71"/>
     </row>
     <row r="391" ht="9.75" customHeight="1">
       <c r="A391" s="9"/>
+      <c r="C391" s="71"/>
+      <c r="D391" s="71"/>
     </row>
     <row r="392" ht="9.75" customHeight="1">
       <c r="A392" s="9"/>
+      <c r="C392" s="71"/>
+      <c r="D392" s="71"/>
     </row>
     <row r="393" ht="9.75" customHeight="1">
       <c r="A393" s="9"/>
+      <c r="C393" s="71"/>
+      <c r="D393" s="71"/>
     </row>
     <row r="394" ht="9.75" customHeight="1">
       <c r="A394" s="9"/>
+      <c r="C394" s="71"/>
+      <c r="D394" s="71"/>
     </row>
     <row r="395" ht="9.75" customHeight="1">
       <c r="A395" s="9"/>
+      <c r="C395" s="71"/>
+      <c r="D395" s="71"/>
     </row>
     <row r="396" ht="9.75" customHeight="1">
       <c r="A396" s="9"/>
+      <c r="C396" s="71"/>
+      <c r="D396" s="71"/>
     </row>
     <row r="397" ht="9.75" customHeight="1">
       <c r="A397" s="9"/>
+      <c r="C397" s="71"/>
+      <c r="D397" s="71"/>
     </row>
     <row r="398" ht="9.75" customHeight="1">
       <c r="A398" s="9"/>
+      <c r="C398" s="71"/>
+      <c r="D398" s="71"/>
     </row>
     <row r="399" ht="9.75" customHeight="1">
       <c r="A399" s="9"/>
+      <c r="C399" s="71"/>
+      <c r="D399" s="71"/>
     </row>
     <row r="400" ht="9.75" customHeight="1">
       <c r="A400" s="9"/>
+      <c r="C400" s="71"/>
+      <c r="D400" s="71"/>
     </row>
     <row r="401" ht="9.75" customHeight="1">
       <c r="A401" s="9"/>
+      <c r="C401" s="71"/>
+      <c r="D401" s="71"/>
     </row>
     <row r="402" ht="9.75" customHeight="1">
       <c r="A402" s="9"/>
+      <c r="C402" s="71"/>
+      <c r="D402" s="71"/>
     </row>
     <row r="403" ht="9.75" customHeight="1">
       <c r="A403" s="9"/>
+      <c r="C403" s="71"/>
+      <c r="D403" s="71"/>
     </row>
     <row r="404" ht="9.75" customHeight="1">
       <c r="A404" s="9"/>
+      <c r="C404" s="71"/>
+      <c r="D404" s="71"/>
     </row>
     <row r="405" ht="9.75" customHeight="1">
       <c r="A405" s="9"/>
+      <c r="C405" s="71"/>
+      <c r="D405" s="71"/>
     </row>
     <row r="406" ht="9.75" customHeight="1">
       <c r="A406" s="9"/>
+      <c r="C406" s="71"/>
+      <c r="D406" s="71"/>
     </row>
     <row r="407" ht="9.75" customHeight="1">
       <c r="A407" s="9"/>
+      <c r="C407" s="71"/>
+      <c r="D407" s="71"/>
     </row>
     <row r="408" ht="9.75" customHeight="1">
       <c r="A408" s="9"/>
+      <c r="C408" s="71"/>
+      <c r="D408" s="71"/>
     </row>
     <row r="409" ht="9.75" customHeight="1">
       <c r="A409" s="9"/>
+      <c r="C409" s="71"/>
+      <c r="D409" s="71"/>
     </row>
     <row r="410" ht="9.75" customHeight="1">
       <c r="A410" s="9"/>
+      <c r="C410" s="71"/>
+      <c r="D410" s="71"/>
     </row>
     <row r="411" ht="9.75" customHeight="1">
       <c r="A411" s="9"/>
+      <c r="C411" s="71"/>
+      <c r="D411" s="71"/>
     </row>
     <row r="412" ht="9.75" customHeight="1">
       <c r="A412" s="9"/>
+      <c r="C412" s="71"/>
+      <c r="D412" s="71"/>
     </row>
     <row r="413" ht="9.75" customHeight="1">
       <c r="A413" s="9"/>
+      <c r="C413" s="71"/>
+      <c r="D413" s="71"/>
     </row>
     <row r="414" ht="9.75" customHeight="1">
       <c r="A414" s="9"/>
+      <c r="C414" s="71"/>
+      <c r="D414" s="71"/>
     </row>
     <row r="415" ht="9.75" customHeight="1">
       <c r="A415" s="9"/>
+      <c r="C415" s="71"/>
+      <c r="D415" s="71"/>
     </row>
     <row r="416" ht="9.75" customHeight="1">
       <c r="A416" s="9"/>
+      <c r="C416" s="71"/>
+      <c r="D416" s="71"/>
     </row>
     <row r="417" ht="9.75" customHeight="1">
       <c r="A417" s="9"/>
+      <c r="C417" s="71"/>
+      <c r="D417" s="71"/>
     </row>
     <row r="418" ht="9.75" customHeight="1">
       <c r="A418" s="9"/>
+      <c r="C418" s="71"/>
+      <c r="D418" s="71"/>
     </row>
     <row r="419" ht="9.75" customHeight="1">
       <c r="A419" s="9"/>
+      <c r="C419" s="71"/>
+      <c r="D419" s="71"/>
     </row>
     <row r="420" ht="9.75" customHeight="1">
       <c r="A420" s="9"/>
+      <c r="C420" s="71"/>
+      <c r="D420" s="71"/>
     </row>
     <row r="421" ht="9.75" customHeight="1">
       <c r="A421" s="9"/>
+      <c r="C421" s="71"/>
+      <c r="D421" s="71"/>
     </row>
     <row r="422" ht="9.75" customHeight="1">
       <c r="A422" s="9"/>
+      <c r="C422" s="71"/>
+      <c r="D422" s="71"/>
     </row>
     <row r="423" ht="9.75" customHeight="1">
       <c r="A423" s="9"/>
+      <c r="C423" s="71"/>
+      <c r="D423" s="71"/>
     </row>
     <row r="424" ht="9.75" customHeight="1">
       <c r="A424" s="9"/>
+      <c r="C424" s="71"/>
+      <c r="D424" s="71"/>
     </row>
     <row r="425" ht="9.75" customHeight="1">
       <c r="A425" s="9"/>
+      <c r="C425" s="71"/>
+      <c r="D425" s="71"/>
     </row>
     <row r="426" ht="9.75" customHeight="1">
       <c r="A426" s="9"/>
+      <c r="C426" s="71"/>
+      <c r="D426" s="71"/>
     </row>
     <row r="427" ht="9.75" customHeight="1">
       <c r="A427" s="9"/>
+      <c r="C427" s="71"/>
+      <c r="D427" s="71"/>
     </row>
     <row r="428" ht="9.75" customHeight="1">
       <c r="A428" s="9"/>
+      <c r="C428" s="71"/>
+      <c r="D428" s="71"/>
     </row>
     <row r="429" ht="9.75" customHeight="1">
       <c r="A429" s="9"/>
+      <c r="C429" s="71"/>
+      <c r="D429" s="71"/>
     </row>
     <row r="430" ht="9.75" customHeight="1">
       <c r="A430" s="9"/>
+      <c r="C430" s="71"/>
+      <c r="D430" s="71"/>
     </row>
     <row r="431" ht="9.75" customHeight="1">
       <c r="A431" s="9"/>
+      <c r="C431" s="71"/>
+      <c r="D431" s="71"/>
     </row>
     <row r="432" ht="9.75" customHeight="1">
       <c r="A432" s="9"/>
+      <c r="C432" s="71"/>
+      <c r="D432" s="71"/>
     </row>
     <row r="433" ht="9.75" customHeight="1">
       <c r="A433" s="9"/>
+      <c r="C433" s="71"/>
+      <c r="D433" s="71"/>
     </row>
     <row r="434" ht="9.75" customHeight="1">
       <c r="A434" s="9"/>
+      <c r="C434" s="71"/>
+      <c r="D434" s="71"/>
     </row>
     <row r="435" ht="9.75" customHeight="1">
       <c r="A435" s="9"/>
+      <c r="C435" s="71"/>
+      <c r="D435" s="71"/>
     </row>
     <row r="436" ht="9.75" customHeight="1">
       <c r="A436" s="9"/>
+      <c r="C436" s="71"/>
+      <c r="D436" s="71"/>
     </row>
     <row r="437" ht="9.75" customHeight="1">
       <c r="A437" s="9"/>
+      <c r="C437" s="71"/>
+      <c r="D437" s="71"/>
     </row>
     <row r="438" ht="9.75" customHeight="1">
       <c r="A438" s="9"/>
+      <c r="C438" s="71"/>
+      <c r="D438" s="71"/>
     </row>
     <row r="439" ht="9.75" customHeight="1">
       <c r="A439" s="9"/>
+      <c r="C439" s="71"/>
+      <c r="D439" s="71"/>
     </row>
     <row r="440" ht="9.75" customHeight="1">
       <c r="A440" s="9"/>
+      <c r="C440" s="71"/>
+      <c r="D440" s="71"/>
     </row>
     <row r="441" ht="9.75" customHeight="1">
       <c r="A441" s="9"/>
+      <c r="C441" s="71"/>
+      <c r="D441" s="71"/>
     </row>
     <row r="442" ht="9.75" customHeight="1">
       <c r="A442" s="9"/>
+      <c r="C442" s="71"/>
+      <c r="D442" s="71"/>
     </row>
     <row r="443" ht="9.75" customHeight="1">
       <c r="A443" s="9"/>
+      <c r="C443" s="71"/>
+      <c r="D443" s="71"/>
     </row>
     <row r="444" ht="9.75" customHeight="1">
       <c r="A444" s="9"/>
+      <c r="C444" s="71"/>
+      <c r="D444" s="71"/>
     </row>
     <row r="445" ht="9.75" customHeight="1">
       <c r="A445" s="9"/>
+      <c r="C445" s="71"/>
+      <c r="D445" s="71"/>
     </row>
     <row r="446" ht="9.75" customHeight="1">
       <c r="A446" s="9"/>
+      <c r="C446" s="71"/>
+      <c r="D446" s="71"/>
     </row>
     <row r="447" ht="9.75" customHeight="1">
       <c r="A447" s="9"/>
+      <c r="C447" s="71"/>
+      <c r="D447" s="71"/>
     </row>
     <row r="448" ht="9.75" customHeight="1">
       <c r="A448" s="9"/>
+      <c r="C448" s="71"/>
+      <c r="D448" s="71"/>
     </row>
     <row r="449" ht="9.75" customHeight="1">
       <c r="A449" s="9"/>
+      <c r="C449" s="71"/>
+      <c r="D449" s="71"/>
     </row>
     <row r="450" ht="9.75" customHeight="1">
       <c r="A450" s="9"/>
+      <c r="C450" s="71"/>
+      <c r="D450" s="71"/>
     </row>
     <row r="451" ht="9.75" customHeight="1">
       <c r="A451" s="9"/>
+      <c r="C451" s="71"/>
+      <c r="D451" s="71"/>
     </row>
     <row r="452" ht="9.75" customHeight="1">
       <c r="A452" s="9"/>
+      <c r="C452" s="71"/>
+      <c r="D452" s="71"/>
     </row>
     <row r="453" ht="9.75" customHeight="1">
       <c r="A453" s="9"/>
+      <c r="C453" s="71"/>
+      <c r="D453" s="71"/>
     </row>
     <row r="454" ht="9.75" customHeight="1">
       <c r="A454" s="9"/>
+      <c r="C454" s="71"/>
+      <c r="D454" s="71"/>
     </row>
     <row r="455" ht="9.75" customHeight="1">
       <c r="A455" s="9"/>
+      <c r="C455" s="71"/>
+      <c r="D455" s="71"/>
     </row>
     <row r="456" ht="9.75" customHeight="1">
       <c r="A456" s="9"/>
+      <c r="C456" s="71"/>
+      <c r="D456" s="71"/>
     </row>
     <row r="457" ht="9.75" customHeight="1">
       <c r="A457" s="9"/>
+      <c r="C457" s="71"/>
+      <c r="D457" s="71"/>
     </row>
     <row r="458" ht="9.75" customHeight="1">
       <c r="A458" s="9"/>
+      <c r="C458" s="71"/>
+      <c r="D458" s="71"/>
     </row>
     <row r="459" ht="9.75" customHeight="1">
       <c r="A459" s="9"/>
+      <c r="C459" s="71"/>
+      <c r="D459" s="71"/>
     </row>
     <row r="460" ht="9.75" customHeight="1">
       <c r="A460" s="9"/>
+      <c r="C460" s="71"/>
+      <c r="D460" s="71"/>
     </row>
     <row r="461" ht="9.75" customHeight="1">
       <c r="A461" s="9"/>
+      <c r="C461" s="71"/>
+      <c r="D461" s="71"/>
     </row>
     <row r="462" ht="9.75" customHeight="1">
       <c r="A462" s="9"/>
+      <c r="C462" s="71"/>
+      <c r="D462" s="71"/>
     </row>
     <row r="463" ht="9.75" customHeight="1">
       <c r="A463" s="9"/>
+      <c r="C463" s="71"/>
+      <c r="D463" s="71"/>
     </row>
     <row r="464" ht="9.75" customHeight="1">
       <c r="A464" s="9"/>
+      <c r="C464" s="71"/>
+      <c r="D464" s="71"/>
     </row>
     <row r="465" ht="9.75" customHeight="1">
       <c r="A465" s="9"/>
+      <c r="C465" s="71"/>
+      <c r="D465" s="71"/>
     </row>
     <row r="466" ht="9.75" customHeight="1">
       <c r="A466" s="9"/>
+      <c r="C466" s="71"/>
+      <c r="D466" s="71"/>
     </row>
     <row r="467" ht="9.75" customHeight="1">
       <c r="A467" s="9"/>
+      <c r="C467" s="71"/>
+      <c r="D467" s="71"/>
     </row>
     <row r="468" ht="9.75" customHeight="1">
       <c r="A468" s="9"/>
+      <c r="C468" s="71"/>
+      <c r="D468" s="71"/>
     </row>
     <row r="469" ht="9.75" customHeight="1">
       <c r="A469" s="9"/>
+      <c r="C469" s="71"/>
+      <c r="D469" s="71"/>
     </row>
     <row r="470" ht="9.75" customHeight="1">
       <c r="A470" s="9"/>
+      <c r="C470" s="71"/>
+      <c r="D470" s="71"/>
     </row>
     <row r="471" ht="9.75" customHeight="1">
       <c r="A471" s="9"/>
+      <c r="C471" s="71"/>
+      <c r="D471" s="71"/>
     </row>
     <row r="472" ht="9.75" customHeight="1">
       <c r="A472" s="9"/>
+      <c r="C472" s="71"/>
+      <c r="D472" s="71"/>
     </row>
     <row r="473" ht="9.75" customHeight="1">
       <c r="A473" s="9"/>
+      <c r="C473" s="71"/>
+      <c r="D473" s="71"/>
     </row>
     <row r="474" ht="9.75" customHeight="1">
       <c r="A474" s="9"/>
+      <c r="C474" s="71"/>
+      <c r="D474" s="71"/>
     </row>
     <row r="475" ht="9.75" customHeight="1">
       <c r="A475" s="9"/>
+      <c r="C475" s="71"/>
+      <c r="D475" s="71"/>
     </row>
     <row r="476" ht="9.75" customHeight="1">
       <c r="A476" s="9"/>
+      <c r="C476" s="71"/>
+      <c r="D476" s="71"/>
     </row>
     <row r="477" ht="9.75" customHeight="1">
       <c r="A477" s="9"/>
+      <c r="C477" s="71"/>
+      <c r="D477" s="71"/>
     </row>
     <row r="478" ht="9.75" customHeight="1">
       <c r="A478" s="9"/>
+      <c r="C478" s="71"/>
+      <c r="D478" s="71"/>
     </row>
     <row r="479" ht="9.75" customHeight="1">
       <c r="A479" s="9"/>
+      <c r="C479" s="71"/>
+      <c r="D479" s="71"/>
     </row>
     <row r="480" ht="9.75" customHeight="1">
       <c r="A480" s="9"/>
+      <c r="C480" s="71"/>
+      <c r="D480" s="71"/>
     </row>
     <row r="481" ht="9.75" customHeight="1">
       <c r="A481" s="9"/>
+      <c r="C481" s="71"/>
+      <c r="D481" s="71"/>
     </row>
     <row r="482" ht="9.75" customHeight="1">
       <c r="A482" s="9"/>
+      <c r="C482" s="71"/>
+      <c r="D482" s="71"/>
     </row>
     <row r="483" ht="9.75" customHeight="1">
       <c r="A483" s="9"/>
+      <c r="C483" s="71"/>
+      <c r="D483" s="71"/>
     </row>
     <row r="484" ht="9.75" customHeight="1">
       <c r="A484" s="9"/>
+      <c r="C484" s="71"/>
+      <c r="D484" s="71"/>
     </row>
     <row r="485" ht="9.75" customHeight="1">
       <c r="A485" s="9"/>
+      <c r="C485" s="71"/>
+      <c r="D485" s="71"/>
     </row>
     <row r="486" ht="9.75" customHeight="1">
       <c r="A486" s="9"/>
+      <c r="C486" s="71"/>
+      <c r="D486" s="71"/>
     </row>
     <row r="487" ht="9.75" customHeight="1">
       <c r="A487" s="9"/>
+      <c r="C487" s="71"/>
+      <c r="D487" s="71"/>
     </row>
     <row r="488" ht="9.75" customHeight="1">
       <c r="A488" s="9"/>
+      <c r="C488" s="71"/>
+      <c r="D488" s="71"/>
     </row>
     <row r="489" ht="9.75" customHeight="1">
       <c r="A489" s="9"/>
+      <c r="C489" s="71"/>
+      <c r="D489" s="71"/>
     </row>
     <row r="490" ht="9.75" customHeight="1">
       <c r="A490" s="9"/>
+      <c r="C490" s="71"/>
+      <c r="D490" s="71"/>
     </row>
     <row r="491" ht="9.75" customHeight="1">
       <c r="A491" s="9"/>
+      <c r="C491" s="71"/>
+      <c r="D491" s="71"/>
     </row>
     <row r="492" ht="9.75" customHeight="1">
       <c r="A492" s="9"/>
+      <c r="C492" s="71"/>
+      <c r="D492" s="71"/>
     </row>
     <row r="493" ht="9.75" customHeight="1">
       <c r="A493" s="9"/>
+      <c r="C493" s="71"/>
+      <c r="D493" s="71"/>
     </row>
     <row r="494" ht="9.75" customHeight="1">
       <c r="A494" s="9"/>
+      <c r="C494" s="71"/>
+      <c r="D494" s="71"/>
     </row>
     <row r="495" ht="9.75" customHeight="1">
       <c r="A495" s="9"/>
+      <c r="C495" s="71"/>
+      <c r="D495" s="71"/>
     </row>
     <row r="496" ht="9.75" customHeight="1">
       <c r="A496" s="9"/>
+      <c r="C496" s="71"/>
+      <c r="D496" s="71"/>
     </row>
     <row r="497" ht="9.75" customHeight="1">
       <c r="A497" s="9"/>
+      <c r="C497" s="71"/>
+      <c r="D497" s="71"/>
     </row>
     <row r="498" ht="9.75" customHeight="1">
       <c r="A498" s="9"/>
+      <c r="C498" s="71"/>
+      <c r="D498" s="71"/>
     </row>
     <row r="499" ht="9.75" customHeight="1">
       <c r="A499" s="9"/>
+      <c r="C499" s="71"/>
+      <c r="D499" s="71"/>
     </row>
     <row r="500" ht="9.75" customHeight="1">
       <c r="A500" s="9"/>
+      <c r="C500" s="71"/>
+      <c r="D500" s="71"/>
     </row>
     <row r="501" ht="9.75" customHeight="1">
       <c r="A501" s="9"/>
+      <c r="C501" s="71"/>
+      <c r="D501" s="71"/>
     </row>
     <row r="502" ht="9.75" customHeight="1">
       <c r="A502" s="9"/>
+      <c r="C502" s="71"/>
+      <c r="D502" s="71"/>
     </row>
     <row r="503" ht="9.75" customHeight="1">
       <c r="A503" s="9"/>
+      <c r="C503" s="71"/>
+      <c r="D503" s="71"/>
     </row>
     <row r="504" ht="9.75" customHeight="1">
       <c r="A504" s="9"/>
+      <c r="C504" s="71"/>
+      <c r="D504" s="71"/>
     </row>
     <row r="505" ht="9.75" customHeight="1">
       <c r="A505" s="9"/>
+      <c r="C505" s="71"/>
+      <c r="D505" s="71"/>
     </row>
     <row r="506" ht="9.75" customHeight="1">
       <c r="A506" s="9"/>
+      <c r="C506" s="71"/>
+      <c r="D506" s="71"/>
     </row>
     <row r="507" ht="9.75" customHeight="1">
       <c r="A507" s="9"/>
+      <c r="C507" s="71"/>
+      <c r="D507" s="71"/>
     </row>
     <row r="508" ht="9.75" customHeight="1">
       <c r="A508" s="9"/>
+      <c r="C508" s="71"/>
+      <c r="D508" s="71"/>
     </row>
     <row r="509" ht="9.75" customHeight="1">
       <c r="A509" s="9"/>
+      <c r="C509" s="71"/>
+      <c r="D509" s="71"/>
     </row>
     <row r="510" ht="9.75" customHeight="1">
       <c r="A510" s="9"/>
+      <c r="C510" s="71"/>
+      <c r="D510" s="71"/>
     </row>
     <row r="511" ht="9.75" customHeight="1">
       <c r="A511" s="9"/>
+      <c r="C511" s="71"/>
+      <c r="D511" s="71"/>
     </row>
     <row r="512" ht="9.75" customHeight="1">
       <c r="A512" s="9"/>
+      <c r="C512" s="71"/>
+      <c r="D512" s="71"/>
     </row>
     <row r="513" ht="9.75" customHeight="1">
       <c r="A513" s="9"/>
+      <c r="C513" s="71"/>
+      <c r="D513" s="71"/>
     </row>
     <row r="514" ht="9.75" customHeight="1">
       <c r="A514" s="9"/>
+      <c r="C514" s="71"/>
+      <c r="D514" s="71"/>
     </row>
     <row r="515" ht="9.75" customHeight="1">
       <c r="A515" s="9"/>
+      <c r="C515" s="71"/>
+      <c r="D515" s="71"/>
     </row>
     <row r="516" ht="9.75" customHeight="1">
       <c r="A516" s="9"/>
+      <c r="C516" s="71"/>
+      <c r="D516" s="71"/>
     </row>
     <row r="517" ht="9.75" customHeight="1">
       <c r="A517" s="9"/>
+      <c r="C517" s="71"/>
+      <c r="D517" s="71"/>
     </row>
     <row r="518" ht="9.75" customHeight="1">
       <c r="A518" s="9"/>
+      <c r="C518" s="71"/>
+      <c r="D518" s="71"/>
     </row>
     <row r="519" ht="9.75" customHeight="1">
       <c r="A519" s="9"/>
+      <c r="C519" s="71"/>
+      <c r="D519" s="71"/>
     </row>
     <row r="520" ht="9.75" customHeight="1">
       <c r="A520" s="9"/>
+      <c r="C520" s="71"/>
+      <c r="D520" s="71"/>
     </row>
     <row r="521" ht="9.75" customHeight="1">
       <c r="A521" s="9"/>
+      <c r="C521" s="71"/>
+      <c r="D521" s="71"/>
     </row>
     <row r="522" ht="9.75" customHeight="1">
       <c r="A522" s="9"/>
+      <c r="C522" s="71"/>
+      <c r="D522" s="71"/>
     </row>
     <row r="523" ht="9.75" customHeight="1">
       <c r="A523" s="9"/>
+      <c r="C523" s="71"/>
+      <c r="D523" s="71"/>
     </row>
     <row r="524" ht="9.75" customHeight="1">
       <c r="A524" s="9"/>
+      <c r="C524" s="71"/>
+      <c r="D524" s="71"/>
     </row>
     <row r="525" ht="9.75" customHeight="1">
       <c r="A525" s="9"/>
+      <c r="C525" s="71"/>
+      <c r="D525" s="71"/>
     </row>
     <row r="526" ht="9.75" customHeight="1">
       <c r="A526" s="9"/>
+      <c r="C526" s="71"/>
+      <c r="D526" s="71"/>
     </row>
     <row r="527" ht="9.75" customHeight="1">
       <c r="A527" s="9"/>
+      <c r="C527" s="71"/>
+      <c r="D527" s="71"/>
     </row>
     <row r="528" ht="9.75" customHeight="1">
       <c r="A528" s="9"/>
+      <c r="C528" s="71"/>
+      <c r="D528" s="71"/>
     </row>
     <row r="529" ht="9.75" customHeight="1">
       <c r="A529" s="9"/>
+      <c r="C529" s="71"/>
+      <c r="D529" s="71"/>
     </row>
     <row r="530" ht="9.75" customHeight="1">
       <c r="A530" s="9"/>
+      <c r="C530" s="71"/>
+      <c r="D530" s="71"/>
     </row>
     <row r="531" ht="9.75" customHeight="1">
       <c r="A531" s="9"/>
+      <c r="C531" s="71"/>
+      <c r="D531" s="71"/>
     </row>
     <row r="532" ht="9.75" customHeight="1">
       <c r="A532" s="9"/>
+      <c r="C532" s="71"/>
+      <c r="D532" s="71"/>
     </row>
     <row r="533" ht="9.75" customHeight="1">
       <c r="A533" s="9"/>
+      <c r="C533" s="71"/>
+      <c r="D533" s="71"/>
     </row>
     <row r="534" ht="9.75" customHeight="1">
       <c r="A534" s="9"/>
+      <c r="C534" s="71"/>
+      <c r="D534" s="71"/>
     </row>
     <row r="535" ht="9.75" customHeight="1">
       <c r="A535" s="9"/>
+      <c r="C535" s="71"/>
+      <c r="D535" s="71"/>
     </row>
     <row r="536" ht="9.75" customHeight="1">
       <c r="A536" s="9"/>
+      <c r="C536" s="71"/>
+      <c r="D536" s="71"/>
     </row>
     <row r="537" ht="9.75" customHeight="1">
       <c r="A537" s="9"/>
+      <c r="C537" s="71"/>
+      <c r="D537" s="71"/>
     </row>
     <row r="538" ht="9.75" customHeight="1">
       <c r="A538" s="9"/>
+      <c r="C538" s="71"/>
+      <c r="D538" s="71"/>
     </row>
     <row r="539" ht="9.75" customHeight="1">
       <c r="A539" s="9"/>
+      <c r="C539" s="71"/>
+      <c r="D539" s="71"/>
     </row>
     <row r="540" ht="9.75" customHeight="1">
       <c r="A540" s="9"/>
+      <c r="C540" s="71"/>
+      <c r="D540" s="71"/>
     </row>
     <row r="541" ht="9.75" customHeight="1">
       <c r="A541" s="9"/>
+      <c r="C541" s="71"/>
+      <c r="D541" s="71"/>
     </row>
     <row r="542" ht="9.75" customHeight="1">
       <c r="A542" s="9"/>
+      <c r="C542" s="71"/>
+      <c r="D542" s="71"/>
     </row>
     <row r="543" ht="9.75" customHeight="1">
       <c r="A543" s="9"/>
+      <c r="C543" s="71"/>
+      <c r="D543" s="71"/>
     </row>
     <row r="544" ht="9.75" customHeight="1">
       <c r="A544" s="9"/>
+      <c r="C544" s="71"/>
+      <c r="D544" s="71"/>
     </row>
     <row r="545" ht="9.75" customHeight="1">
       <c r="A545" s="9"/>
+      <c r="C545" s="71"/>
+      <c r="D545" s="71"/>
     </row>
     <row r="546" ht="9.75" customHeight="1">
       <c r="A546" s="9"/>
+      <c r="C546" s="71"/>
+      <c r="D546" s="71"/>
     </row>
     <row r="547" ht="9.75" customHeight="1">
       <c r="A547" s="9"/>
+      <c r="C547" s="71"/>
+      <c r="D547" s="71"/>
     </row>
     <row r="548" ht="9.75" customHeight="1">
       <c r="A548" s="9"/>
+      <c r="C548" s="71"/>
+      <c r="D548" s="71"/>
     </row>
     <row r="549" ht="9.75" customHeight="1">
       <c r="A549" s="9"/>
+      <c r="C549" s="71"/>
+      <c r="D549" s="71"/>
     </row>
     <row r="550" ht="9.75" customHeight="1">
       <c r="A550" s="9"/>
+      <c r="C550" s="71"/>
+      <c r="D550" s="71"/>
     </row>
     <row r="551" ht="9.75" customHeight="1">
       <c r="A551" s="9"/>
+      <c r="C551" s="71"/>
+      <c r="D551" s="71"/>
     </row>
     <row r="552" ht="9.75" customHeight="1">
       <c r="A552" s="9"/>
+      <c r="C552" s="71"/>
+      <c r="D552" s="71"/>
     </row>
     <row r="553" ht="9.75" customHeight="1">
       <c r="A553" s="9"/>
+      <c r="C553" s="71"/>
+      <c r="D553" s="71"/>
     </row>
     <row r="554" ht="9.75" customHeight="1">
       <c r="A554" s="9"/>
+      <c r="C554" s="71"/>
+      <c r="D554" s="71"/>
     </row>
     <row r="555" ht="9.75" customHeight="1">
       <c r="A555" s="9"/>
+      <c r="C555" s="71"/>
+      <c r="D555" s="71"/>
     </row>
     <row r="556" ht="9.75" customHeight="1">
       <c r="A556" s="9"/>
+      <c r="C556" s="71"/>
+      <c r="D556" s="71"/>
     </row>
     <row r="557" ht="9.75" customHeight="1">
       <c r="A557" s="9"/>
+      <c r="C557" s="71"/>
+      <c r="D557" s="71"/>
     </row>
     <row r="558" ht="9.75" customHeight="1">
       <c r="A558" s="9"/>
+      <c r="C558" s="71"/>
+      <c r="D558" s="71"/>
     </row>
     <row r="559" ht="9.75" customHeight="1">
       <c r="A559" s="9"/>
+      <c r="C559" s="71"/>
+      <c r="D559" s="71"/>
     </row>
     <row r="560" ht="9.75" customHeight="1">
       <c r="A560" s="9"/>
+      <c r="C560" s="71"/>
+      <c r="D560" s="71"/>
     </row>
     <row r="561" ht="9.75" customHeight="1">
       <c r="A561" s="9"/>
+      <c r="C561" s="71"/>
+      <c r="D561" s="71"/>
     </row>
     <row r="562" ht="9.75" customHeight="1">
       <c r="A562" s="9"/>
+      <c r="C562" s="71"/>
+      <c r="D562" s="71"/>
     </row>
     <row r="563" ht="9.75" customHeight="1">
       <c r="A563" s="9"/>
+      <c r="C563" s="71"/>
+      <c r="D563" s="71"/>
     </row>
     <row r="564" ht="9.75" customHeight="1">
       <c r="A564" s="9"/>
+      <c r="C564" s="71"/>
+      <c r="D564" s="71"/>
     </row>
     <row r="565" ht="9.75" customHeight="1">
       <c r="A565" s="9"/>
+      <c r="C565" s="71"/>
+      <c r="D565" s="71"/>
     </row>
     <row r="566" ht="9.75" customHeight="1">
       <c r="A566" s="9"/>
+      <c r="C566" s="71"/>
+      <c r="D566" s="71"/>
     </row>
     <row r="567" ht="9.75" customHeight="1">
       <c r="A567" s="9"/>
+      <c r="C567" s="71"/>
+      <c r="D567" s="71"/>
     </row>
     <row r="568" ht="9.75" customHeight="1">
       <c r="A568" s="9"/>
+      <c r="C568" s="71"/>
+      <c r="D568" s="71"/>
     </row>
     <row r="569" ht="9.75" customHeight="1">
       <c r="A569" s="9"/>
+      <c r="C569" s="71"/>
+      <c r="D569" s="71"/>
     </row>
     <row r="570" ht="9.75" customHeight="1">
       <c r="A570" s="9"/>
+      <c r="C570" s="71"/>
+      <c r="D570" s="71"/>
     </row>
     <row r="571" ht="9.75" customHeight="1">
       <c r="A571" s="9"/>
+      <c r="C571" s="71"/>
+      <c r="D571" s="71"/>
     </row>
     <row r="572" ht="9.75" customHeight="1">
       <c r="A572" s="9"/>
+      <c r="C572" s="71"/>
+      <c r="D572" s="71"/>
     </row>
     <row r="573" ht="9.75" customHeight="1">
       <c r="A573" s="9"/>
+      <c r="C573" s="71"/>
+      <c r="D573" s="71"/>
     </row>
     <row r="574" ht="9.75" customHeight="1">
       <c r="A574" s="9"/>
+      <c r="C574" s="71"/>
+      <c r="D574" s="71"/>
     </row>
     <row r="575" ht="9.75" customHeight="1">
       <c r="A575" s="9"/>
+      <c r="C575" s="71"/>
+      <c r="D575" s="71"/>
     </row>
     <row r="576" ht="9.75" customHeight="1">
       <c r="A576" s="9"/>
+      <c r="C576" s="71"/>
+      <c r="D576" s="71"/>
     </row>
     <row r="577" ht="9.75" customHeight="1">
       <c r="A577" s="9"/>
+      <c r="C577" s="71"/>
+      <c r="D577" s="71"/>
     </row>
     <row r="578" ht="9.75" customHeight="1">
       <c r="A578" s="9"/>
+      <c r="C578" s="71"/>
+      <c r="D578" s="71"/>
     </row>
     <row r="579" ht="9.75" customHeight="1">
       <c r="A579" s="9"/>
+      <c r="C579" s="71"/>
+      <c r="D579" s="71"/>
     </row>
     <row r="580" ht="9.75" customHeight="1">
       <c r="A580" s="9"/>
+      <c r="C580" s="71"/>
+      <c r="D580" s="71"/>
     </row>
     <row r="581" ht="9.75" customHeight="1">
       <c r="A581" s="9"/>
+      <c r="C581" s="71"/>
+      <c r="D581" s="71"/>
     </row>
     <row r="582" ht="9.75" customHeight="1">
       <c r="A582" s="9"/>
+      <c r="C582" s="71"/>
+      <c r="D582" s="71"/>
     </row>
     <row r="583" ht="9.75" customHeight="1">
       <c r="A583" s="9"/>
+      <c r="C583" s="71"/>
+      <c r="D583" s="71"/>
     </row>
     <row r="584" ht="9.75" customHeight="1">
       <c r="A584" s="9"/>
+      <c r="C584" s="71"/>
+      <c r="D584" s="71"/>
     </row>
     <row r="585" ht="9.75" customHeight="1">
       <c r="A585" s="9"/>
+      <c r="C585" s="71"/>
+      <c r="D585" s="71"/>
     </row>
     <row r="586" ht="9.75" customHeight="1">
       <c r="A586" s="9"/>
+      <c r="C586" s="71"/>
+      <c r="D586" s="71"/>
     </row>
     <row r="587" ht="9.75" customHeight="1">
       <c r="A587" s="9"/>
+      <c r="C587" s="71"/>
+      <c r="D587" s="71"/>
     </row>
     <row r="588" ht="9.75" customHeight="1">
       <c r="A588" s="9"/>
+      <c r="C588" s="71"/>
+      <c r="D588" s="71"/>
     </row>
     <row r="589" ht="9.75" customHeight="1">
       <c r="A589" s="9"/>
+      <c r="C589" s="71"/>
+      <c r="D589" s="71"/>
     </row>
     <row r="590" ht="9.75" customHeight="1">
       <c r="A590" s="9"/>
+      <c r="C590" s="71"/>
+      <c r="D590" s="71"/>
     </row>
     <row r="591" ht="9.75" customHeight="1">
       <c r="A591" s="9"/>
+      <c r="C591" s="71"/>
+      <c r="D591" s="71"/>
     </row>
     <row r="592" ht="9.75" customHeight="1">
       <c r="A592" s="9"/>
+      <c r="C592" s="71"/>
+      <c r="D592" s="71"/>
     </row>
     <row r="593" ht="9.75" customHeight="1">
       <c r="A593" s="9"/>
+      <c r="C593" s="71"/>
+      <c r="D593" s="71"/>
     </row>
     <row r="594" ht="9.75" customHeight="1">
       <c r="A594" s="9"/>
+      <c r="C594" s="71"/>
+      <c r="D594" s="71"/>
     </row>
     <row r="595" ht="9.75" customHeight="1">
       <c r="A595" s="9"/>
+      <c r="C595" s="71"/>
+      <c r="D595" s="71"/>
     </row>
     <row r="596" ht="9.75" customHeight="1">
       <c r="A596" s="9"/>
+      <c r="C596" s="71"/>
+      <c r="D596" s="71"/>
     </row>
     <row r="597" ht="9.75" customHeight="1">
       <c r="A597" s="9"/>
+      <c r="C597" s="71"/>
+      <c r="D597" s="71"/>
     </row>
     <row r="598" ht="9.75" customHeight="1">
       <c r="A598" s="9"/>
+      <c r="C598" s="71"/>
+      <c r="D598" s="71"/>
     </row>
     <row r="599" ht="9.75" customHeight="1">
       <c r="A599" s="9"/>
+      <c r="C599" s="71"/>
+      <c r="D599" s="71"/>
     </row>
     <row r="600" ht="9.75" customHeight="1">
       <c r="A600" s="9"/>
+      <c r="C600" s="71"/>
+      <c r="D600" s="71"/>
     </row>
     <row r="601" ht="9.75" customHeight="1">
       <c r="A601" s="9"/>
+      <c r="C601" s="71"/>
+      <c r="D601" s="71"/>
     </row>
     <row r="602" ht="9.75" customHeight="1">
       <c r="A602" s="9"/>
+      <c r="C602" s="71"/>
+      <c r="D602" s="71"/>
     </row>
     <row r="603" ht="9.75" customHeight="1">
       <c r="A603" s="9"/>
+      <c r="C603" s="71"/>
+      <c r="D603" s="71"/>
     </row>
     <row r="604" ht="9.75" customHeight="1">
       <c r="A604" s="9"/>
+      <c r="C604" s="71"/>
+      <c r="D604" s="71"/>
     </row>
     <row r="605" ht="9.75" customHeight="1">
       <c r="A605" s="9"/>
+      <c r="C605" s="71"/>
+      <c r="D605" s="71"/>
     </row>
     <row r="606" ht="9.75" customHeight="1">
       <c r="A606" s="9"/>
+      <c r="C606" s="71"/>
+      <c r="D606" s="71"/>
     </row>
     <row r="607" ht="9.75" customHeight="1">
       <c r="A607" s="9"/>
+      <c r="C607" s="71"/>
+      <c r="D607" s="71"/>
     </row>
     <row r="608" ht="9.75" customHeight="1">
       <c r="A608" s="9"/>
+      <c r="C608" s="71"/>
+      <c r="D608" s="71"/>
     </row>
     <row r="609" ht="9.75" customHeight="1">
       <c r="A609" s="9"/>
+      <c r="C609" s="71"/>
+      <c r="D609" s="71"/>
     </row>
     <row r="610" ht="9.75" customHeight="1">
       <c r="A610" s="9"/>
+      <c r="C610" s="71"/>
+      <c r="D610" s="71"/>
     </row>
     <row r="611" ht="9.75" customHeight="1">
       <c r="A611" s="9"/>
+      <c r="C611" s="71"/>
+      <c r="D611" s="71"/>
     </row>
     <row r="612" ht="9.75" customHeight="1">
       <c r="A612" s="9"/>
+      <c r="C612" s="71"/>
+      <c r="D612" s="71"/>
     </row>
     <row r="613" ht="9.75" customHeight="1">
       <c r="A613" s="9"/>
+      <c r="C613" s="71"/>
+      <c r="D613" s="71"/>
     </row>
     <row r="614" ht="9.75" customHeight="1">
       <c r="A614" s="9"/>
+      <c r="C614" s="71"/>
+      <c r="D614" s="71"/>
     </row>
     <row r="615" ht="9.75" customHeight="1">
       <c r="A615" s="9"/>
+      <c r="C615" s="71"/>
+      <c r="D615" s="71"/>
     </row>
     <row r="616" ht="9.75" customHeight="1">
       <c r="A616" s="9"/>
+      <c r="C616" s="71"/>
+      <c r="D616" s="71"/>
     </row>
     <row r="617" ht="9.75" customHeight="1">
       <c r="A617" s="9"/>
+      <c r="C617" s="71"/>
+      <c r="D617" s="71"/>
     </row>
     <row r="618" ht="9.75" customHeight="1">
       <c r="A618" s="9"/>
+      <c r="C618" s="71"/>
+      <c r="D618" s="71"/>
     </row>
     <row r="619" ht="9.75" customHeight="1">
       <c r="A619" s="9"/>
+      <c r="C619" s="71"/>
+      <c r="D619" s="71"/>
     </row>
     <row r="620" ht="9.75" customHeight="1">
       <c r="A620" s="9"/>
+      <c r="C620" s="71"/>
+      <c r="D620" s="71"/>
     </row>
     <row r="621" ht="9.75" customHeight="1">
       <c r="A621" s="9"/>
+      <c r="C621" s="71"/>
+      <c r="D621" s="71"/>
     </row>
     <row r="622" ht="9.75" customHeight="1">
       <c r="A622" s="9"/>
+      <c r="C622" s="71"/>
+      <c r="D622" s="71"/>
     </row>
     <row r="623" ht="9.75" customHeight="1">
       <c r="A623" s="9"/>
+      <c r="C623" s="71"/>
+      <c r="D623" s="71"/>
     </row>
     <row r="624" ht="9.75" customHeight="1">
       <c r="A624" s="9"/>
+      <c r="C624" s="71"/>
+      <c r="D624" s="71"/>
     </row>
     <row r="625" ht="9.75" customHeight="1">
       <c r="A625" s="9"/>
+      <c r="C625" s="71"/>
+      <c r="D625" s="71"/>
     </row>
     <row r="626" ht="9.75" customHeight="1">
       <c r="A626" s="9"/>
+      <c r="C626" s="71"/>
+      <c r="D626" s="71"/>
     </row>
     <row r="627" ht="9.75" customHeight="1">
       <c r="A627" s="9"/>
+      <c r="C627" s="71"/>
+      <c r="D627" s="71"/>
     </row>
     <row r="628" ht="9.75" customHeight="1">
       <c r="A628" s="9"/>
+      <c r="C628" s="71"/>
+      <c r="D628" s="71"/>
     </row>
     <row r="629" ht="9.75" customHeight="1">
       <c r="A629" s="9"/>
+      <c r="C629" s="71"/>
+      <c r="D629" s="71"/>
     </row>
     <row r="630" ht="9.75" customHeight="1">
       <c r="A630" s="9"/>
+      <c r="C630" s="71"/>
+      <c r="D630" s="71"/>
     </row>
     <row r="631" ht="9.75" customHeight="1">
       <c r="A631" s="9"/>
+      <c r="C631" s="71"/>
+      <c r="D631" s="71"/>
     </row>
     <row r="632" ht="9.75" customHeight="1">
       <c r="A632" s="9"/>
+      <c r="C632" s="71"/>
+      <c r="D632" s="71"/>
     </row>
     <row r="633" ht="9.75" customHeight="1">
       <c r="A633" s="9"/>
+      <c r="C633" s="71"/>
+      <c r="D633" s="71"/>
     </row>
     <row r="634" ht="9.75" customHeight="1">
       <c r="A634" s="9"/>
+      <c r="C634" s="71"/>
+      <c r="D634" s="71"/>
     </row>
     <row r="635" ht="9.75" customHeight="1">
       <c r="A635" s="9"/>
+      <c r="C635" s="71"/>
+      <c r="D635" s="71"/>
     </row>
     <row r="636" ht="9.75" customHeight="1">
       <c r="A636" s="9"/>
+      <c r="C636" s="71"/>
+      <c r="D636" s="71"/>
     </row>
     <row r="637" ht="9.75" customHeight="1">
       <c r="A637" s="9"/>
+      <c r="C637" s="71"/>
+      <c r="D637" s="71"/>
     </row>
     <row r="638" ht="9.75" customHeight="1">
       <c r="A638" s="9"/>
+      <c r="C638" s="71"/>
+      <c r="D638" s="71"/>
     </row>
     <row r="639" ht="9.75" customHeight="1">
       <c r="A639" s="9"/>
+      <c r="C639" s="71"/>
+      <c r="D639" s="71"/>
     </row>
     <row r="640" ht="9.75" customHeight="1">
       <c r="A640" s="9"/>
+      <c r="C640" s="71"/>
+      <c r="D640" s="71"/>
     </row>
     <row r="641" ht="9.75" customHeight="1">
       <c r="A641" s="9"/>
+      <c r="C641" s="71"/>
+      <c r="D641" s="71"/>
     </row>
     <row r="642" ht="9.75" customHeight="1">
       <c r="A642" s="9"/>
+      <c r="C642" s="71"/>
+      <c r="D642" s="71"/>
     </row>
     <row r="643" ht="9.75" customHeight="1">
       <c r="A643" s="9"/>
+      <c r="C643" s="71"/>
+      <c r="D643" s="71"/>
     </row>
     <row r="644" ht="9.75" customHeight="1">
       <c r="A644" s="9"/>
+      <c r="C644" s="71"/>
+      <c r="D644" s="71"/>
     </row>
     <row r="645" ht="9.75" customHeight="1">
       <c r="A645" s="9"/>
+      <c r="C645" s="71"/>
+      <c r="D645" s="71"/>
     </row>
     <row r="646" ht="9.75" customHeight="1">
       <c r="A646" s="9"/>
+      <c r="C646" s="71"/>
+      <c r="D646" s="71"/>
     </row>
     <row r="647" ht="9.75" customHeight="1">
       <c r="A647" s="9"/>
+      <c r="C647" s="71"/>
+      <c r="D647" s="71"/>
     </row>
     <row r="648" ht="9.75" customHeight="1">
       <c r="A648" s="9"/>
+      <c r="C648" s="71"/>
+      <c r="D648" s="71"/>
     </row>
     <row r="649" ht="9.75" customHeight="1">
       <c r="A649" s="9"/>
+      <c r="C649" s="71"/>
+      <c r="D649" s="71"/>
     </row>
     <row r="650" ht="9.75" customHeight="1">
       <c r="A650" s="9"/>
+      <c r="C650" s="71"/>
+      <c r="D650" s="71"/>
     </row>
     <row r="651" ht="9.75" customHeight="1">
       <c r="A651" s="9"/>
+      <c r="C651" s="71"/>
+      <c r="D651" s="71"/>
     </row>
     <row r="652" ht="9.75" customHeight="1">
       <c r="A652" s="9"/>
+      <c r="C652" s="71"/>
+      <c r="D652" s="71"/>
     </row>
     <row r="653" ht="9.75" customHeight="1">
       <c r="A653" s="9"/>
+      <c r="C653" s="71"/>
+      <c r="D653" s="71"/>
     </row>
     <row r="654" ht="9.75" customHeight="1">
       <c r="A654" s="9"/>
+      <c r="C654" s="71"/>
+      <c r="D654" s="71"/>
     </row>
     <row r="655" ht="9.75" customHeight="1">
       <c r="A655" s="9"/>
+      <c r="C655" s="71"/>
+      <c r="D655" s="71"/>
     </row>
     <row r="656" ht="9.75" customHeight="1">
       <c r="A656" s="9"/>
+      <c r="C656" s="71"/>
+      <c r="D656" s="71"/>
     </row>
     <row r="657" ht="9.75" customHeight="1">
       <c r="A657" s="9"/>
+      <c r="C657" s="71"/>
+      <c r="D657" s="71"/>
     </row>
     <row r="658" ht="9.75" customHeight="1">
       <c r="A658" s="9"/>
+      <c r="C658" s="71"/>
+      <c r="D658" s="71"/>
     </row>
     <row r="659" ht="9.75" customHeight="1">
       <c r="A659" s="9"/>
+      <c r="C659" s="71"/>
+      <c r="D659" s="71"/>
     </row>
     <row r="660" ht="9.75" customHeight="1">
       <c r="A660" s="9"/>
+      <c r="C660" s="71"/>
+      <c r="D660" s="71"/>
     </row>
     <row r="661" ht="9.75" customHeight="1">
       <c r="A661" s="9"/>
+      <c r="C661" s="71"/>
+      <c r="D661" s="71"/>
     </row>
     <row r="662" ht="9.75" customHeight="1">
       <c r="A662" s="9"/>
+      <c r="C662" s="71"/>
+      <c r="D662" s="71"/>
     </row>
     <row r="663" ht="9.75" customHeight="1">
       <c r="A663" s="9"/>
+      <c r="C663" s="71"/>
+      <c r="D663" s="71"/>
     </row>
     <row r="664" ht="9.75" customHeight="1">
       <c r="A664" s="9"/>
+      <c r="C664" s="71"/>
+      <c r="D664" s="71"/>
     </row>
     <row r="665" ht="9.75" customHeight="1">
       <c r="A665" s="9"/>
+      <c r="C665" s="71"/>
+      <c r="D665" s="71"/>
     </row>
     <row r="666" ht="9.75" customHeight="1">
       <c r="A666" s="9"/>
+      <c r="C666" s="71"/>
+      <c r="D666" s="71"/>
     </row>
     <row r="667" ht="9.75" customHeight="1">
       <c r="A667" s="9"/>
+      <c r="C667" s="71"/>
+      <c r="D667" s="71"/>
     </row>
     <row r="668" ht="9.75" customHeight="1">
       <c r="A668" s="9"/>
+      <c r="C668" s="71"/>
+      <c r="D668" s="71"/>
     </row>
     <row r="669" ht="9.75" customHeight="1">
       <c r="A669" s="9"/>
+      <c r="C669" s="71"/>
+      <c r="D669" s="71"/>
     </row>
     <row r="670" ht="9.75" customHeight="1">
       <c r="A670" s="9"/>
+      <c r="C670" s="71"/>
+      <c r="D670" s="71"/>
     </row>
     <row r="671" ht="9.75" customHeight="1">
       <c r="A671" s="9"/>
+      <c r="C671" s="71"/>
+      <c r="D671" s="71"/>
     </row>
     <row r="672" ht="9.75" customHeight="1">
       <c r="A672" s="9"/>
+      <c r="C672" s="71"/>
+      <c r="D672" s="71"/>
     </row>
     <row r="673" ht="9.75" customHeight="1">
       <c r="A673" s="9"/>
+      <c r="C673" s="71"/>
+      <c r="D673" s="71"/>
     </row>
     <row r="674" ht="9.75" customHeight="1">
       <c r="A674" s="9"/>
+      <c r="C674" s="71"/>
+      <c r="D674" s="71"/>
     </row>
     <row r="675" ht="9.75" customHeight="1">
       <c r="A675" s="9"/>
+      <c r="C675" s="71"/>
+      <c r="D675" s="71"/>
     </row>
     <row r="676" ht="9.75" customHeight="1">
       <c r="A676" s="9"/>
+      <c r="C676" s="71"/>
+      <c r="D676" s="71"/>
     </row>
     <row r="677" ht="9.75" customHeight="1">
       <c r="A677" s="9"/>
+      <c r="C677" s="71"/>
+      <c r="D677" s="71"/>
     </row>
     <row r="678" ht="9.75" customHeight="1">
       <c r="A678" s="9"/>
+      <c r="C678" s="71"/>
+      <c r="D678" s="71"/>
     </row>
     <row r="679" ht="9.75" customHeight="1">
       <c r="A679" s="9"/>
+      <c r="C679" s="71"/>
+      <c r="D679" s="71"/>
     </row>
     <row r="680" ht="9.75" customHeight="1">
       <c r="A680" s="9"/>
+      <c r="C680" s="71"/>
+      <c r="D680" s="71"/>
     </row>
     <row r="681" ht="9.75" customHeight="1">
       <c r="A681" s="9"/>
+      <c r="C681" s="71"/>
+      <c r="D681" s="71"/>
     </row>
     <row r="682" ht="9.75" customHeight="1">
       <c r="A682" s="9"/>
+      <c r="C682" s="71"/>
+      <c r="D682" s="71"/>
     </row>
     <row r="683" ht="9.75" customHeight="1">
       <c r="A683" s="9"/>
+      <c r="C683" s="71"/>
+      <c r="D683" s="71"/>
     </row>
     <row r="684" ht="9.75" customHeight="1">
       <c r="A684" s="9"/>
+      <c r="C684" s="71"/>
+      <c r="D684" s="71"/>
     </row>
     <row r="685" ht="9.75" customHeight="1">
       <c r="A685" s="9"/>
+      <c r="C685" s="71"/>
+      <c r="D685" s="71"/>
     </row>
     <row r="686" ht="9.75" customHeight="1">
       <c r="A686" s="9"/>
+      <c r="C686" s="71"/>
+      <c r="D686" s="71"/>
     </row>
     <row r="687" ht="9.75" customHeight="1">
       <c r="A687" s="9"/>
+      <c r="C687" s="71"/>
+      <c r="D687" s="71"/>
     </row>
     <row r="688" ht="9.75" customHeight="1">
       <c r="A688" s="9"/>
+      <c r="C688" s="71"/>
+      <c r="D688" s="71"/>
     </row>
     <row r="689" ht="9.75" customHeight="1">
       <c r="A689" s="9"/>
+      <c r="C689" s="71"/>
+      <c r="D689" s="71"/>
     </row>
     <row r="690" ht="9.75" customHeight="1">
       <c r="A690" s="9"/>
+      <c r="C690" s="71"/>
+      <c r="D690" s="71"/>
     </row>
     <row r="691" ht="9.75" customHeight="1">
       <c r="A691" s="9"/>
+      <c r="C691" s="71"/>
+      <c r="D691" s="71"/>
     </row>
     <row r="692" ht="9.75" customHeight="1">
       <c r="A692" s="9"/>
+      <c r="C692" s="71"/>
+      <c r="D692" s="71"/>
     </row>
     <row r="693" ht="9.75" customHeight="1">
       <c r="A693" s="9"/>
+      <c r="C693" s="71"/>
+      <c r="D693" s="71"/>
     </row>
     <row r="694" ht="9.75" customHeight="1">
       <c r="A694" s="9"/>
+      <c r="C694" s="71"/>
+      <c r="D694" s="71"/>
     </row>
     <row r="695" ht="9.75" customHeight="1">
       <c r="A695" s="9"/>
+      <c r="C695" s="71"/>
+      <c r="D695" s="71"/>
     </row>
     <row r="696" ht="9.75" customHeight="1">
       <c r="A696" s="9"/>
+      <c r="C696" s="71"/>
+      <c r="D696" s="71"/>
     </row>
     <row r="697" ht="9.75" customHeight="1">
       <c r="A697" s="9"/>
+      <c r="C697" s="71"/>
+      <c r="D697" s="71"/>
     </row>
     <row r="698" ht="9.75" customHeight="1">
       <c r="A698" s="9"/>
+      <c r="C698" s="71"/>
+      <c r="D698" s="71"/>
     </row>
     <row r="699" ht="9.75" customHeight="1">
       <c r="A699" s="9"/>
+      <c r="C699" s="71"/>
+      <c r="D699" s="71"/>
     </row>
     <row r="700" ht="9.75" customHeight="1">
       <c r="A700" s="9"/>
+      <c r="C700" s="71"/>
+      <c r="D700" s="71"/>
     </row>
     <row r="701" ht="9.75" customHeight="1">
       <c r="A701" s="9"/>
+      <c r="C701" s="71"/>
+      <c r="D701" s="71"/>
     </row>
     <row r="702" ht="9.75" customHeight="1">
       <c r="A702" s="9"/>
+      <c r="C702" s="71"/>
+      <c r="D702" s="71"/>
     </row>
     <row r="703" ht="9.75" customHeight="1">
       <c r="A703" s="9"/>
+      <c r="C703" s="71"/>
+      <c r="D703" s="71"/>
     </row>
     <row r="704" ht="9.75" customHeight="1">
       <c r="A704" s="9"/>
+      <c r="C704" s="71"/>
+      <c r="D704" s="71"/>
     </row>
     <row r="705" ht="9.75" customHeight="1">
       <c r="A705" s="9"/>
+      <c r="C705" s="71"/>
+      <c r="D705" s="71"/>
     </row>
     <row r="706" ht="9.75" customHeight="1">
       <c r="A706" s="9"/>
+      <c r="C706" s="71"/>
+      <c r="D706" s="71"/>
     </row>
     <row r="707" ht="9.75" customHeight="1">
       <c r="A707" s="9"/>
+      <c r="C707" s="71"/>
+      <c r="D707" s="71"/>
     </row>
     <row r="708" ht="9.75" customHeight="1">
       <c r="A708" s="9"/>
+      <c r="C708" s="71"/>
+      <c r="D708" s="71"/>
     </row>
     <row r="709" ht="9.75" customHeight="1">
       <c r="A709" s="9"/>
+      <c r="C709" s="71"/>
+      <c r="D709" s="71"/>
     </row>
     <row r="710" ht="9.75" customHeight="1">
       <c r="A710" s="9"/>
+      <c r="C710" s="71"/>
+      <c r="D710" s="71"/>
     </row>
     <row r="711" ht="9.75" customHeight="1">
       <c r="A711" s="9"/>
+      <c r="C711" s="71"/>
+      <c r="D711" s="71"/>
     </row>
     <row r="712" ht="9.75" customHeight="1">
       <c r="A712" s="9"/>
+      <c r="C712" s="71"/>
+      <c r="D712" s="71"/>
     </row>
     <row r="713" ht="9.75" customHeight="1">
       <c r="A713" s="9"/>
+      <c r="C713" s="71"/>
+      <c r="D713" s="71"/>
     </row>
     <row r="714" ht="9.75" customHeight="1">
       <c r="A714" s="9"/>
+      <c r="C714" s="71"/>
+      <c r="D714" s="71"/>
     </row>
     <row r="715" ht="9.75" customHeight="1">
       <c r="A715" s="9"/>
+      <c r="C715" s="71"/>
+      <c r="D715" s="71"/>
     </row>
     <row r="716" ht="9.75" customHeight="1">
       <c r="A716" s="9"/>
+      <c r="C716" s="71"/>
+      <c r="D716" s="71"/>
     </row>
     <row r="717" ht="9.75" customHeight="1">
       <c r="A717" s="9"/>
+      <c r="C717" s="71"/>
+      <c r="D717" s="71"/>
     </row>
     <row r="718" ht="9.75" customHeight="1">
       <c r="A718" s="9"/>
+      <c r="C718" s="71"/>
+      <c r="D718" s="71"/>
     </row>
     <row r="719" ht="9.75" customHeight="1">
       <c r="A719" s="9"/>
+      <c r="C719" s="71"/>
+      <c r="D719" s="71"/>
     </row>
     <row r="720" ht="9.75" customHeight="1">
       <c r="A720" s="9"/>
+      <c r="C720" s="71"/>
+      <c r="D720" s="71"/>
     </row>
     <row r="721" ht="9.75" customHeight="1">
       <c r="A721" s="9"/>
+      <c r="C721" s="71"/>
+      <c r="D721" s="71"/>
     </row>
     <row r="722" ht="9.75" customHeight="1">
       <c r="A722" s="9"/>
+      <c r="C722" s="71"/>
+      <c r="D722" s="71"/>
     </row>
     <row r="723" ht="9.75" customHeight="1">
       <c r="A723" s="9"/>
+      <c r="C723" s="71"/>
+      <c r="D723" s="71"/>
     </row>
     <row r="724" ht="9.75" customHeight="1">
       <c r="A724" s="9"/>
+      <c r="C724" s="71"/>
+      <c r="D724" s="71"/>
     </row>
     <row r="725" ht="9.75" customHeight="1">
       <c r="A725" s="9"/>
+      <c r="C725" s="71"/>
+      <c r="D725" s="71"/>
     </row>
     <row r="726" ht="9.75" customHeight="1">
       <c r="A726" s="9"/>
+      <c r="C726" s="71"/>
+      <c r="D726" s="71"/>
     </row>
     <row r="727" ht="9.75" customHeight="1">
       <c r="A727" s="9"/>
+      <c r="C727" s="71"/>
+      <c r="D727" s="71"/>
     </row>
     <row r="728" ht="9.75" customHeight="1">
       <c r="A728" s="9"/>
+      <c r="C728" s="71"/>
+      <c r="D728" s="71"/>
     </row>
     <row r="729" ht="9.75" customHeight="1">
       <c r="A729" s="9"/>
+      <c r="C729" s="71"/>
+      <c r="D729" s="71"/>
     </row>
     <row r="730" ht="9.75" customHeight="1">
       <c r="A730" s="9"/>
+      <c r="C730" s="71"/>
+      <c r="D730" s="71"/>
     </row>
     <row r="731" ht="9.75" customHeight="1">
       <c r="A731" s="9"/>
+      <c r="C731" s="71"/>
+      <c r="D731" s="71"/>
     </row>
     <row r="732" ht="9.75" customHeight="1">
       <c r="A732" s="9"/>
+      <c r="C732" s="71"/>
+      <c r="D732" s="71"/>
     </row>
     <row r="733" ht="9.75" customHeight="1">
       <c r="A733" s="9"/>
+      <c r="C733" s="71"/>
+      <c r="D733" s="71"/>
     </row>
     <row r="734" ht="9.75" customHeight="1">
       <c r="A734" s="9"/>
+      <c r="C734" s="71"/>
+      <c r="D734" s="71"/>
     </row>
     <row r="735" ht="9.75" customHeight="1">
       <c r="A735" s="9"/>
+      <c r="C735" s="71"/>
+      <c r="D735" s="71"/>
     </row>
     <row r="736" ht="9.75" customHeight="1">
       <c r="A736" s="9"/>
+      <c r="C736" s="71"/>
+      <c r="D736" s="71"/>
     </row>
     <row r="737" ht="9.75" customHeight="1">
       <c r="A737" s="9"/>
+      <c r="C737" s="71"/>
+      <c r="D737" s="71"/>
     </row>
     <row r="738" ht="9.75" customHeight="1">
       <c r="A738" s="9"/>
+      <c r="C738" s="71"/>
+      <c r="D738" s="71"/>
     </row>
     <row r="739" ht="9.75" customHeight="1">
       <c r="A739" s="9"/>
+      <c r="C739" s="71"/>
+      <c r="D739" s="71"/>
     </row>
     <row r="740" ht="9.75" customHeight="1">
       <c r="A740" s="9"/>
+      <c r="C740" s="71"/>
+      <c r="D740" s="71"/>
     </row>
     <row r="741" ht="9.75" customHeight="1">
       <c r="A741" s="9"/>
+      <c r="C741" s="71"/>
+      <c r="D741" s="71"/>
     </row>
     <row r="742" ht="9.75" customHeight="1">
       <c r="A742" s="9"/>
+      <c r="C742" s="71"/>
+      <c r="D742" s="71"/>
     </row>
     <row r="743" ht="9.75" customHeight="1">
       <c r="A743" s="9"/>
+      <c r="C743" s="71"/>
+      <c r="D743" s="71"/>
     </row>
     <row r="744" ht="9.75" customHeight="1">
       <c r="A744" s="9"/>
+      <c r="C744" s="71"/>
+      <c r="D744" s="71"/>
     </row>
     <row r="745" ht="9.75" customHeight="1">
       <c r="A745" s="9"/>
+      <c r="C745" s="71"/>
+      <c r="D745" s="71"/>
     </row>
     <row r="746" ht="9.75" customHeight="1">
       <c r="A746" s="9"/>
+      <c r="C746" s="71"/>
+      <c r="D746" s="71"/>
     </row>
     <row r="747" ht="9.75" customHeight="1">
       <c r="A747" s="9"/>
+      <c r="C747" s="71"/>
+      <c r="D747" s="71"/>
     </row>
     <row r="748" ht="9.75" customHeight="1">
       <c r="A748" s="9"/>
+      <c r="C748" s="71"/>
+      <c r="D748" s="71"/>
     </row>
     <row r="749" ht="9.75" customHeight="1">
       <c r="A749" s="9"/>
+      <c r="C749" s="71"/>
+      <c r="D749" s="71"/>
     </row>
     <row r="750" ht="9.75" customHeight="1">
       <c r="A750" s="9"/>
+      <c r="C750" s="71"/>
+      <c r="D750" s="71"/>
     </row>
     <row r="751" ht="9.75" customHeight="1">
       <c r="A751" s="9"/>
+      <c r="C751" s="71"/>
+      <c r="D751" s="71"/>
     </row>
     <row r="752" ht="9.75" customHeight="1">
       <c r="A752" s="9"/>
+      <c r="C752" s="71"/>
+      <c r="D752" s="71"/>
     </row>
     <row r="753" ht="9.75" customHeight="1">
       <c r="A753" s="9"/>
+      <c r="C753" s="71"/>
+      <c r="D753" s="71"/>
     </row>
     <row r="754" ht="9.75" customHeight="1">
       <c r="A754" s="9"/>
+      <c r="C754" s="71"/>
+      <c r="D754" s="71"/>
     </row>
     <row r="755" ht="9.75" customHeight="1">
       <c r="A755" s="9"/>
+      <c r="C755" s="71"/>
+      <c r="D755" s="71"/>
     </row>
     <row r="756" ht="9.75" customHeight="1">
       <c r="A756" s="9"/>
+      <c r="C756" s="71"/>
+      <c r="D756" s="71"/>
     </row>
     <row r="757" ht="9.75" customHeight="1">
       <c r="A757" s="9"/>
+      <c r="C757" s="71"/>
+      <c r="D757" s="71"/>
     </row>
     <row r="758" ht="9.75" customHeight="1">
       <c r="A758" s="9"/>
+      <c r="C758" s="71"/>
+      <c r="D758" s="71"/>
     </row>
     <row r="759" ht="9.75" customHeight="1">
       <c r="A759" s="9"/>
+      <c r="C759" s="71"/>
+      <c r="D759" s="71"/>
     </row>
     <row r="760" ht="9.75" customHeight="1">
       <c r="A760" s="9"/>
+      <c r="C760" s="71"/>
+      <c r="D760" s="71"/>
     </row>
     <row r="761" ht="9.75" customHeight="1">
       <c r="A761" s="9"/>
+      <c r="C761" s="71"/>
+      <c r="D761" s="71"/>
     </row>
     <row r="762" ht="9.75" customHeight="1">
       <c r="A762" s="9"/>
+      <c r="C762" s="71"/>
+      <c r="D762" s="71"/>
     </row>
     <row r="763" ht="9.75" customHeight="1">
       <c r="A763" s="9"/>
+      <c r="C763" s="71"/>
+      <c r="D763" s="71"/>
     </row>
     <row r="764" ht="9.75" customHeight="1">
       <c r="A764" s="9"/>
+      <c r="C764" s="71"/>
+      <c r="D764" s="71"/>
     </row>
     <row r="765" ht="9.75" customHeight="1">
       <c r="A765" s="9"/>
+      <c r="C765" s="71"/>
+      <c r="D765" s="71"/>
     </row>
     <row r="766" ht="9.75" customHeight="1">
       <c r="A766" s="9"/>
+      <c r="C766" s="71"/>
+      <c r="D766" s="71"/>
     </row>
     <row r="767" ht="9.75" customHeight="1">
       <c r="A767" s="9"/>
+      <c r="C767" s="71"/>
+      <c r="D767" s="71"/>
     </row>
     <row r="768" ht="9.75" customHeight="1">
       <c r="A768" s="9"/>
+      <c r="C768" s="71"/>
+      <c r="D768" s="71"/>
     </row>
     <row r="769" ht="9.75" customHeight="1">
       <c r="A769" s="9"/>
+      <c r="C769" s="71"/>
+      <c r="D769" s="71"/>
     </row>
     <row r="770" ht="9.75" customHeight="1">
       <c r="A770" s="9"/>
+      <c r="C770" s="71"/>
+      <c r="D770" s="71"/>
     </row>
     <row r="771" ht="9.75" customHeight="1">
       <c r="A771" s="9"/>
+      <c r="C771" s="71"/>
+      <c r="D771" s="71"/>
     </row>
     <row r="772" ht="9.75" customHeight="1">
       <c r="A772" s="9"/>
+      <c r="C772" s="71"/>
+      <c r="D772" s="71"/>
     </row>
     <row r="773" ht="9.75" customHeight="1">
       <c r="A773" s="9"/>
+      <c r="C773" s="71"/>
+      <c r="D773" s="71"/>
     </row>
     <row r="774" ht="9.75" customHeight="1">
       <c r="A774" s="9"/>
+      <c r="C774" s="71"/>
+      <c r="D774" s="71"/>
     </row>
     <row r="775" ht="9.75" customHeight="1">
       <c r="A775" s="9"/>
+      <c r="C775" s="71"/>
+      <c r="D775" s="71"/>
     </row>
     <row r="776" ht="9.75" customHeight="1">
       <c r="A776" s="9"/>
+      <c r="C776" s="71"/>
+      <c r="D776" s="71"/>
     </row>
     <row r="777" ht="9.75" customHeight="1">
       <c r="A777" s="9"/>
+      <c r="C777" s="71"/>
+      <c r="D777" s="71"/>
     </row>
     <row r="778" ht="9.75" customHeight="1">
       <c r="A778" s="9"/>
+      <c r="C778" s="71"/>
+      <c r="D778" s="71"/>
     </row>
     <row r="779" ht="9.75" customHeight="1">
       <c r="A779" s="9"/>
+      <c r="C779" s="71"/>
+      <c r="D779" s="71"/>
     </row>
     <row r="780" ht="9.75" customHeight="1">
       <c r="A780" s="9"/>
+      <c r="C780" s="71"/>
+      <c r="D780" s="71"/>
     </row>
     <row r="781" ht="9.75" customHeight="1">
       <c r="A781" s="9"/>
+      <c r="C781" s="71"/>
+      <c r="D781" s="71"/>
     </row>
     <row r="782" ht="9.75" customHeight="1">
       <c r="A782" s="9"/>
+      <c r="C782" s="71"/>
+      <c r="D782" s="71"/>
     </row>
     <row r="783" ht="9.75" customHeight="1">
       <c r="A783" s="9"/>
+      <c r="C783" s="71"/>
+      <c r="D783" s="71"/>
     </row>
     <row r="784" ht="9.75" customHeight="1">
       <c r="A784" s="9"/>
+      <c r="C784" s="71"/>
+      <c r="D784" s="71"/>
     </row>
     <row r="785" ht="9.75" customHeight="1">
       <c r="A785" s="9"/>
+      <c r="C785" s="71"/>
+      <c r="D785" s="71"/>
     </row>
     <row r="786" ht="9.75" customHeight="1">
       <c r="A786" s="9"/>
+      <c r="C786" s="71"/>
+      <c r="D786" s="71"/>
     </row>
     <row r="787" ht="9.75" customHeight="1">
       <c r="A787" s="9"/>
+      <c r="C787" s="71"/>
+      <c r="D787" s="71"/>
     </row>
     <row r="788" ht="9.75" customHeight="1">
       <c r="A788" s="9"/>
+      <c r="C788" s="71"/>
+      <c r="D788" s="71"/>
     </row>
     <row r="789" ht="9.75" customHeight="1">
       <c r="A789" s="9"/>
+      <c r="C789" s="71"/>
+      <c r="D789" s="71"/>
     </row>
     <row r="790" ht="9.75" customHeight="1">
       <c r="A790" s="9"/>
+      <c r="C790" s="71"/>
+      <c r="D790" s="71"/>
     </row>
     <row r="791" ht="9.75" customHeight="1">
       <c r="A791" s="9"/>
+      <c r="C791" s="71"/>
+      <c r="D791" s="71"/>
     </row>
     <row r="792" ht="9.75" customHeight="1">
       <c r="A792" s="9"/>
+      <c r="C792" s="71"/>
+      <c r="D792" s="71"/>
     </row>
     <row r="793" ht="9.75" customHeight="1">
       <c r="A793" s="9"/>
+      <c r="C793" s="71"/>
+      <c r="D793" s="71"/>
     </row>
     <row r="794" ht="9.75" customHeight="1">
       <c r="A794" s="9"/>
+      <c r="C794" s="71"/>
+      <c r="D794" s="71"/>
     </row>
     <row r="795" ht="9.75" customHeight="1">
       <c r="A795" s="9"/>
+      <c r="C795" s="71"/>
+      <c r="D795" s="71"/>
     </row>
     <row r="796" ht="9.75" customHeight="1">
       <c r="A796" s="9"/>
+      <c r="C796" s="71"/>
+      <c r="D796" s="71"/>
     </row>
     <row r="797" ht="9.75" customHeight="1">
       <c r="A797" s="9"/>
+      <c r="C797" s="71"/>
+      <c r="D797" s="71"/>
     </row>
     <row r="798" ht="9.75" customHeight="1">
       <c r="A798" s="9"/>
+      <c r="C798" s="71"/>
+      <c r="D798" s="71"/>
     </row>
     <row r="799" ht="9.75" customHeight="1">
       <c r="A799" s="9"/>
+      <c r="C799" s="71"/>
+      <c r="D799" s="71"/>
     </row>
     <row r="800" ht="9.75" customHeight="1">
       <c r="A800" s="9"/>
+      <c r="C800" s="71"/>
+      <c r="D800" s="71"/>
     </row>
     <row r="801" ht="9.75" customHeight="1">
       <c r="A801" s="9"/>
+      <c r="C801" s="71"/>
+      <c r="D801" s="71"/>
     </row>
     <row r="802" ht="9.75" customHeight="1">
       <c r="A802" s="9"/>
+      <c r="C802" s="71"/>
+      <c r="D802" s="71"/>
     </row>
     <row r="803" ht="9.75" customHeight="1">
       <c r="A803" s="9"/>
+      <c r="C803" s="71"/>
+      <c r="D803" s="71"/>
     </row>
     <row r="804" ht="9.75" customHeight="1">
       <c r="A804" s="9"/>
+      <c r="C804" s="71"/>
+      <c r="D804" s="71"/>
     </row>
     <row r="805" ht="9.75" customHeight="1">
       <c r="A805" s="9"/>
+      <c r="C805" s="71"/>
+      <c r="D805" s="71"/>
     </row>
     <row r="806" ht="9.75" customHeight="1">
       <c r="A806" s="9"/>
+      <c r="C806" s="71"/>
+      <c r="D806" s="71"/>
     </row>
     <row r="807" ht="9.75" customHeight="1">
       <c r="A807" s="9"/>
+      <c r="C807" s="71"/>
+      <c r="D807" s="71"/>
     </row>
     <row r="808" ht="9.75" customHeight="1">
       <c r="A808" s="9"/>
+      <c r="C808" s="71"/>
+      <c r="D808" s="71"/>
     </row>
     <row r="809" ht="9.75" customHeight="1">
       <c r="A809" s="9"/>
+      <c r="C809" s="71"/>
+      <c r="D809" s="71"/>
     </row>
     <row r="810" ht="9.75" customHeight="1">
       <c r="A810" s="9"/>
+      <c r="C810" s="71"/>
+      <c r="D810" s="71"/>
     </row>
     <row r="811" ht="9.75" customHeight="1">
       <c r="A811" s="9"/>
+      <c r="C811" s="71"/>
+      <c r="D811" s="71"/>
     </row>
     <row r="812" ht="9.75" customHeight="1">
       <c r="A812" s="9"/>
+      <c r="C812" s="71"/>
+      <c r="D812" s="71"/>
     </row>
     <row r="813" ht="9.75" customHeight="1">
       <c r="A813" s="9"/>
+      <c r="C813" s="71"/>
+      <c r="D813" s="71"/>
     </row>
     <row r="814" ht="9.75" customHeight="1">
       <c r="A814" s="9"/>
+      <c r="C814" s="71"/>
+      <c r="D814" s="71"/>
     </row>
     <row r="815" ht="9.75" customHeight="1">
       <c r="A815" s="9"/>
+      <c r="C815" s="71"/>
+      <c r="D815" s="71"/>
     </row>
     <row r="816" ht="9.75" customHeight="1">
       <c r="A816" s="9"/>
+      <c r="C816" s="71"/>
+      <c r="D816" s="71"/>
     </row>
     <row r="817" ht="9.75" customHeight="1">
       <c r="A817" s="9"/>
+      <c r="C817" s="71"/>
+      <c r="D817" s="71"/>
     </row>
     <row r="818" ht="9.75" customHeight="1">
       <c r="A818" s="9"/>
+      <c r="C818" s="71"/>
+      <c r="D818" s="71"/>
     </row>
     <row r="819" ht="9.75" customHeight="1">
       <c r="A819" s="9"/>
+      <c r="C819" s="71"/>
+      <c r="D819" s="71"/>
     </row>
     <row r="820" ht="9.75" customHeight="1">
       <c r="A820" s="9"/>
+      <c r="C820" s="71"/>
+      <c r="D820" s="71"/>
     </row>
     <row r="821" ht="9.75" customHeight="1">
       <c r="A821" s="9"/>
+      <c r="C821" s="71"/>
+      <c r="D821" s="71"/>
     </row>
     <row r="822" ht="9.75" customHeight="1">
       <c r="A822" s="9"/>
+      <c r="C822" s="71"/>
+      <c r="D822" s="71"/>
     </row>
     <row r="823" ht="9.75" customHeight="1">
       <c r="A823" s="9"/>
+      <c r="C823" s="71"/>
+      <c r="D823" s="71"/>
     </row>
     <row r="824" ht="9.75" customHeight="1">
       <c r="A824" s="9"/>
+      <c r="C824" s="71"/>
+      <c r="D824" s="71"/>
     </row>
     <row r="825" ht="9.75" customHeight="1">
       <c r="A825" s="9"/>
+      <c r="C825" s="71"/>
+      <c r="D825" s="71"/>
     </row>
     <row r="826" ht="9.75" customHeight="1">
       <c r="A826" s="9"/>
+      <c r="C826" s="71"/>
+      <c r="D826" s="71"/>
     </row>
     <row r="827" ht="9.75" customHeight="1">
       <c r="A827" s="9"/>
+      <c r="C827" s="71"/>
+      <c r="D827" s="71"/>
     </row>
     <row r="828" ht="9.75" customHeight="1">
       <c r="A828" s="9"/>
+      <c r="C828" s="71"/>
+      <c r="D828" s="71"/>
     </row>
     <row r="829" ht="9.75" customHeight="1">
       <c r="A829" s="9"/>
+      <c r="C829" s="71"/>
+      <c r="D829" s="71"/>
     </row>
     <row r="830" ht="9.75" customHeight="1">
       <c r="A830" s="9"/>
+      <c r="C830" s="71"/>
+      <c r="D830" s="71"/>
     </row>
     <row r="831" ht="9.75" customHeight="1">
       <c r="A831" s="9"/>
+      <c r="C831" s="71"/>
+      <c r="D831" s="71"/>
     </row>
     <row r="832" ht="9.75" customHeight="1">
       <c r="A832" s="9"/>
+      <c r="C832" s="71"/>
+      <c r="D832" s="71"/>
     </row>
     <row r="833" ht="9.75" customHeight="1">
       <c r="A833" s="9"/>
+      <c r="C833" s="71"/>
+      <c r="D833" s="71"/>
     </row>
     <row r="834" ht="9.75" customHeight="1">
       <c r="A834" s="9"/>
+      <c r="C834" s="71"/>
+      <c r="D834" s="71"/>
     </row>
     <row r="835" ht="9.75" customHeight="1">
       <c r="A835" s="9"/>
+      <c r="C835" s="71"/>
+      <c r="D835" s="71"/>
     </row>
     <row r="836" ht="9.75" customHeight="1">
       <c r="A836" s="9"/>
+      <c r="C836" s="71"/>
+      <c r="D836" s="71"/>
     </row>
     <row r="837" ht="9.75" customHeight="1">
       <c r="A837" s="9"/>
+      <c r="C837" s="71"/>
+      <c r="D837" s="71"/>
     </row>
     <row r="838" ht="9.75" customHeight="1">
       <c r="A838" s="9"/>
+      <c r="C838" s="71"/>
+      <c r="D838" s="71"/>
     </row>
     <row r="839" ht="9.75" customHeight="1">
       <c r="A839" s="9"/>
+      <c r="C839" s="71"/>
+      <c r="D839" s="71"/>
     </row>
     <row r="840" ht="9.75" customHeight="1">
       <c r="A840" s="9"/>
+      <c r="C840" s="71"/>
+      <c r="D840" s="71"/>
     </row>
     <row r="841" ht="9.75" customHeight="1">
       <c r="A841" s="9"/>
+      <c r="C841" s="71"/>
+      <c r="D841" s="71"/>
     </row>
     <row r="842" ht="9.75" customHeight="1">
       <c r="A842" s="9"/>
+      <c r="C842" s="71"/>
+      <c r="D842" s="71"/>
     </row>
     <row r="843" ht="9.75" customHeight="1">
       <c r="A843" s="9"/>
+      <c r="C843" s="71"/>
+      <c r="D843" s="71"/>
     </row>
     <row r="844" ht="9.75" customHeight="1">
       <c r="A844" s="9"/>
+      <c r="C844" s="71"/>
+      <c r="D844" s="71"/>
     </row>
     <row r="845" ht="9.75" customHeight="1">
       <c r="A845" s="9"/>
+      <c r="C845" s="71"/>
+      <c r="D845" s="71"/>
     </row>
     <row r="846" ht="9.75" customHeight="1">
       <c r="A846" s="9"/>
+      <c r="C846" s="71"/>
+      <c r="D846" s="71"/>
     </row>
     <row r="847" ht="9.75" customHeight="1">
       <c r="A847" s="9"/>
+      <c r="C847" s="71"/>
+      <c r="D847" s="71"/>
     </row>
     <row r="848" ht="9.75" customHeight="1">
       <c r="A848" s="9"/>
+      <c r="C848" s="71"/>
+      <c r="D848" s="71"/>
     </row>
     <row r="849" ht="9.75" customHeight="1">
       <c r="A849" s="9"/>
+      <c r="C849" s="71"/>
+      <c r="D849" s="71"/>
     </row>
     <row r="850" ht="9.75" customHeight="1">
       <c r="A850" s="9"/>
+      <c r="C850" s="71"/>
+      <c r="D850" s="71"/>
     </row>
     <row r="851" ht="9.75" customHeight="1">
       <c r="A851" s="9"/>
+      <c r="C851" s="71"/>
+      <c r="D851" s="71"/>
     </row>
     <row r="852" ht="9.75" customHeight="1">
       <c r="A852" s="9"/>
+      <c r="C852" s="71"/>
+      <c r="D852" s="71"/>
     </row>
     <row r="853" ht="9.75" customHeight="1">
       <c r="A853" s="9"/>
+      <c r="C853" s="71"/>
+      <c r="D853" s="71"/>
     </row>
     <row r="854" ht="9.75" customHeight="1">
       <c r="A854" s="9"/>
+      <c r="C854" s="71"/>
+      <c r="D854" s="71"/>
     </row>
     <row r="855" ht="9.75" customHeight="1">
       <c r="A855" s="9"/>
+      <c r="C855" s="71"/>
+      <c r="D855" s="71"/>
     </row>
     <row r="856" ht="9.75" customHeight="1">
       <c r="A856" s="9"/>
+      <c r="C856" s="71"/>
+      <c r="D856" s="71"/>
     </row>
     <row r="857" ht="9.75" customHeight="1">
       <c r="A857" s="9"/>
+      <c r="C857" s="71"/>
+      <c r="D857" s="71"/>
     </row>
     <row r="858" ht="9.75" customHeight="1">
       <c r="A858" s="9"/>
+      <c r="C858" s="71"/>
+      <c r="D858" s="71"/>
     </row>
     <row r="859" ht="9.75" customHeight="1">
       <c r="A859" s="9"/>
+      <c r="C859" s="71"/>
+      <c r="D859" s="71"/>
     </row>
     <row r="860" ht="9.75" customHeight="1">
       <c r="A860" s="9"/>
+      <c r="C860" s="71"/>
+      <c r="D860" s="71"/>
     </row>
     <row r="861" ht="9.75" customHeight="1">
       <c r="A861" s="9"/>
+      <c r="C861" s="71"/>
+      <c r="D861" s="71"/>
     </row>
     <row r="862" ht="9.75" customHeight="1">
       <c r="A862" s="9"/>
+      <c r="C862" s="71"/>
+      <c r="D862" s="71"/>
     </row>
     <row r="863" ht="9.75" customHeight="1">
       <c r="A863" s="9"/>
+      <c r="C863" s="71"/>
+      <c r="D863" s="71"/>
     </row>
     <row r="864" ht="9.75" customHeight="1">
       <c r="A864" s="9"/>
+      <c r="C864" s="71"/>
+      <c r="D864" s="71"/>
     </row>
     <row r="865" ht="9.75" customHeight="1">
       <c r="A865" s="9"/>
+      <c r="C865" s="71"/>
+      <c r="D865" s="71"/>
     </row>
     <row r="866" ht="9.75" customHeight="1">
       <c r="A866" s="9"/>
+      <c r="C866" s="71"/>
+      <c r="D866" s="71"/>
     </row>
     <row r="867" ht="9.75" customHeight="1">
       <c r="A867" s="9"/>
+      <c r="C867" s="71"/>
+      <c r="D867" s="71"/>
     </row>
     <row r="868" ht="9.75" customHeight="1">
       <c r="A868" s="9"/>
+      <c r="C868" s="71"/>
+      <c r="D868" s="71"/>
     </row>
     <row r="869" ht="9.75" customHeight="1">
       <c r="A869" s="9"/>
+      <c r="C869" s="71"/>
+      <c r="D869" s="71"/>
     </row>
     <row r="870" ht="9.75" customHeight="1">
       <c r="A870" s="9"/>
+      <c r="C870" s="71"/>
+      <c r="D870" s="71"/>
     </row>
     <row r="871" ht="9.75" customHeight="1">
       <c r="A871" s="9"/>
+      <c r="C871" s="71"/>
+      <c r="D871" s="71"/>
     </row>
     <row r="872" ht="9.75" customHeight="1">
       <c r="A872" s="9"/>
+      <c r="C872" s="71"/>
+      <c r="D872" s="71"/>
     </row>
     <row r="873" ht="9.75" customHeight="1">
       <c r="A873" s="9"/>
+      <c r="C873" s="71"/>
+      <c r="D873" s="71"/>
     </row>
     <row r="874" ht="9.75" customHeight="1">
       <c r="A874" s="9"/>
+      <c r="C874" s="71"/>
+      <c r="D874" s="71"/>
     </row>
     <row r="875" ht="9.75" customHeight="1">
       <c r="A875" s="9"/>
+      <c r="C875" s="71"/>
+      <c r="D875" s="71"/>
     </row>
     <row r="876" ht="9.75" customHeight="1">
       <c r="A876" s="9"/>
+      <c r="C876" s="71"/>
+      <c r="D876" s="71"/>
     </row>
     <row r="877" ht="9.75" customHeight="1">
       <c r="A877" s="9"/>
+      <c r="C877" s="71"/>
+      <c r="D877" s="71"/>
     </row>
     <row r="878" ht="9.75" customHeight="1">
       <c r="A878" s="9"/>
+      <c r="C878" s="71"/>
+      <c r="D878" s="71"/>
     </row>
     <row r="879" ht="9.75" customHeight="1">
       <c r="A879" s="9"/>
+      <c r="C879" s="71"/>
+      <c r="D879" s="71"/>
     </row>
     <row r="880" ht="9.75" customHeight="1">
       <c r="A880" s="9"/>
+      <c r="C880" s="71"/>
+      <c r="D880" s="71"/>
     </row>
     <row r="881" ht="9.75" customHeight="1">
       <c r="A881" s="9"/>
+      <c r="C881" s="71"/>
+      <c r="D881" s="71"/>
     </row>
     <row r="882" ht="9.75" customHeight="1">
       <c r="A882" s="9"/>
+      <c r="C882" s="71"/>
+      <c r="D882" s="71"/>
     </row>
     <row r="883" ht="9.75" customHeight="1">
       <c r="A883" s="9"/>
+      <c r="C883" s="71"/>
+      <c r="D883" s="71"/>
     </row>
     <row r="884" ht="9.75" customHeight="1">
       <c r="A884" s="9"/>
+      <c r="C884" s="71"/>
+      <c r="D884" s="71"/>
     </row>
     <row r="885" ht="9.75" customHeight="1">
       <c r="A885" s="9"/>
+      <c r="C885" s="71"/>
+      <c r="D885" s="71"/>
     </row>
     <row r="886" ht="9.75" customHeight="1">
       <c r="A886" s="9"/>
+      <c r="C886" s="71"/>
+      <c r="D886" s="71"/>
     </row>
     <row r="887" ht="9.75" customHeight="1">
       <c r="A887" s="9"/>
+      <c r="C887" s="71"/>
+      <c r="D887" s="71"/>
     </row>
     <row r="888" ht="9.75" customHeight="1">
       <c r="A888" s="9"/>
+      <c r="C888" s="71"/>
+      <c r="D888" s="71"/>
     </row>
     <row r="889" ht="9.75" customHeight="1">
       <c r="A889" s="9"/>
+      <c r="C889" s="71"/>
+      <c r="D889" s="71"/>
     </row>
     <row r="890" ht="9.75" customHeight="1">
       <c r="A890" s="9"/>
+      <c r="C890" s="71"/>
+      <c r="D890" s="71"/>
     </row>
     <row r="891" ht="9.75" customHeight="1">
       <c r="A891" s="9"/>
+      <c r="C891" s="71"/>
+      <c r="D891" s="71"/>
     </row>
     <row r="892" ht="9.75" customHeight="1">
       <c r="A892" s="9"/>
+      <c r="C892" s="71"/>
+      <c r="D892" s="71"/>
     </row>
     <row r="893" ht="9.75" customHeight="1">
       <c r="A893" s="9"/>
+      <c r="C893" s="71"/>
+      <c r="D893" s="71"/>
     </row>
     <row r="894" ht="9.75" customHeight="1">
       <c r="A894" s="9"/>
+      <c r="C894" s="71"/>
+      <c r="D894" s="71"/>
     </row>
     <row r="895" ht="9.75" customHeight="1">
       <c r="A895" s="9"/>
+      <c r="C895" s="71"/>
+      <c r="D895" s="71"/>
     </row>
     <row r="896" ht="9.75" customHeight="1">
       <c r="A896" s="9"/>
+      <c r="C896" s="71"/>
+      <c r="D896" s="71"/>
     </row>
     <row r="897" ht="9.75" customHeight="1">
       <c r="A897" s="9"/>
+      <c r="C897" s="71"/>
+      <c r="D897" s="71"/>
     </row>
     <row r="898" ht="9.75" customHeight="1">
       <c r="A898" s="9"/>
+      <c r="C898" s="71"/>
+      <c r="D898" s="71"/>
     </row>
     <row r="899" ht="9.75" customHeight="1">
       <c r="A899" s="9"/>
+      <c r="C899" s="71"/>
+      <c r="D899" s="71"/>
     </row>
     <row r="900" ht="9.75" customHeight="1">
       <c r="A900" s="9"/>
+      <c r="C900" s="71"/>
+      <c r="D900" s="71"/>
     </row>
     <row r="901" ht="9.75" customHeight="1">
       <c r="A901" s="9"/>
+      <c r="C901" s="71"/>
+      <c r="D901" s="71"/>
     </row>
     <row r="902" ht="9.75" customHeight="1">
       <c r="A902" s="9"/>
+      <c r="C902" s="71"/>
+      <c r="D902" s="71"/>
     </row>
     <row r="903" ht="9.75" customHeight="1">
       <c r="A903" s="9"/>
+      <c r="C903" s="71"/>
+      <c r="D903" s="71"/>
     </row>
     <row r="904" ht="9.75" customHeight="1">
       <c r="A904" s="9"/>
+      <c r="C904" s="71"/>
+      <c r="D904" s="71"/>
     </row>
     <row r="905" ht="9.75" customHeight="1">
       <c r="A905" s="9"/>
+      <c r="C905" s="71"/>
+      <c r="D905" s="71"/>
     </row>
     <row r="906" ht="9.75" customHeight="1">
       <c r="A906" s="9"/>
+      <c r="C906" s="71"/>
+      <c r="D906" s="71"/>
     </row>
     <row r="907" ht="9.75" customHeight="1">
       <c r="A907" s="9"/>
+      <c r="C907" s="71"/>
+      <c r="D907" s="71"/>
     </row>
     <row r="908" ht="9.75" customHeight="1">
       <c r="A908" s="9"/>
+      <c r="C908" s="71"/>
+      <c r="D908" s="71"/>
     </row>
     <row r="909" ht="9.75" customHeight="1">
       <c r="A909" s="9"/>
+      <c r="C909" s="71"/>
+      <c r="D909" s="71"/>
     </row>
     <row r="910" ht="9.75" customHeight="1">
       <c r="A910" s="9"/>
+      <c r="C910" s="71"/>
+      <c r="D910" s="71"/>
     </row>
     <row r="911" ht="9.75" customHeight="1">
       <c r="A911" s="9"/>
+      <c r="C911" s="71"/>
+      <c r="D911" s="71"/>
     </row>
     <row r="912" ht="9.75" customHeight="1">
       <c r="A912" s="9"/>
+      <c r="C912" s="71"/>
+      <c r="D912" s="71"/>
     </row>
     <row r="913" ht="9.75" customHeight="1">
       <c r="A913" s="9"/>
+      <c r="C913" s="71"/>
+      <c r="D913" s="71"/>
     </row>
     <row r="914" ht="9.75" customHeight="1">
       <c r="A914" s="9"/>
+      <c r="C914" s="71"/>
+      <c r="D914" s="71"/>
     </row>
     <row r="915" ht="9.75" customHeight="1">
       <c r="A915" s="9"/>
+      <c r="C915" s="71"/>
+      <c r="D915" s="71"/>
     </row>
     <row r="916" ht="9.75" customHeight="1">
       <c r="A916" s="9"/>
+      <c r="C916" s="71"/>
+      <c r="D916" s="71"/>
     </row>
     <row r="917" ht="9.75" customHeight="1">
       <c r="A917" s="9"/>
+      <c r="C917" s="71"/>
+      <c r="D917" s="71"/>
     </row>
     <row r="918" ht="9.75" customHeight="1">
       <c r="A918" s="9"/>
+      <c r="C918" s="71"/>
+      <c r="D918" s="71"/>
     </row>
     <row r="919" ht="9.75" customHeight="1">
       <c r="A919" s="9"/>
+      <c r="C919" s="71"/>
+      <c r="D919" s="71"/>
     </row>
     <row r="920" ht="9.75" customHeight="1">
       <c r="A920" s="9"/>
+      <c r="C920" s="71"/>
+      <c r="D920" s="71"/>
     </row>
     <row r="921" ht="9.75" customHeight="1">
       <c r="A921" s="9"/>
+      <c r="C921" s="71"/>
+      <c r="D921" s="71"/>
     </row>
     <row r="922" ht="9.75" customHeight="1">
       <c r="A922" s="9"/>
+      <c r="C922" s="71"/>
+      <c r="D922" s="71"/>
     </row>
     <row r="923" ht="9.75" customHeight="1">
       <c r="A923" s="9"/>
+      <c r="C923" s="71"/>
+      <c r="D923" s="71"/>
     </row>
     <row r="924" ht="9.75" customHeight="1">
       <c r="A924" s="9"/>
+      <c r="C924" s="71"/>
+      <c r="D924" s="71"/>
     </row>
     <row r="925" ht="9.75" customHeight="1">
       <c r="A925" s="9"/>
+      <c r="C925" s="71"/>
+      <c r="D925" s="71"/>
     </row>
     <row r="926" ht="9.75" customHeight="1">
       <c r="A926" s="9"/>
+      <c r="C926" s="71"/>
+      <c r="D926" s="71"/>
     </row>
     <row r="927" ht="9.75" customHeight="1">
       <c r="A927" s="9"/>
+      <c r="C927" s="71"/>
+      <c r="D927" s="71"/>
     </row>
     <row r="928" ht="9.75" customHeight="1">
       <c r="A928" s="9"/>
+      <c r="C928" s="71"/>
+      <c r="D928" s="71"/>
     </row>
     <row r="929" ht="9.75" customHeight="1">
       <c r="A929" s="9"/>
+      <c r="C929" s="71"/>
+      <c r="D929" s="71"/>
     </row>
     <row r="930" ht="9.75" customHeight="1">
       <c r="A930" s="9"/>
+      <c r="C930" s="71"/>
+      <c r="D930" s="71"/>
     </row>
     <row r="931" ht="9.75" customHeight="1">
       <c r="A931" s="9"/>
+      <c r="C931" s="71"/>
+      <c r="D931" s="71"/>
     </row>
     <row r="932" ht="9.75" customHeight="1">
       <c r="A932" s="9"/>
+      <c r="C932" s="71"/>
+      <c r="D932" s="71"/>
     </row>
     <row r="933" ht="9.75" customHeight="1">
       <c r="A933" s="9"/>
+      <c r="C933" s="71"/>
+      <c r="D933" s="71"/>
     </row>
     <row r="934" ht="9.75" customHeight="1">
       <c r="A934" s="9"/>
+      <c r="C934" s="71"/>
+      <c r="D934" s="71"/>
     </row>
     <row r="935" ht="9.75" customHeight="1">
       <c r="A935" s="9"/>
+      <c r="C935" s="71"/>
+      <c r="D935" s="71"/>
     </row>
     <row r="936" ht="9.75" customHeight="1">
       <c r="A936" s="9"/>
+      <c r="C936" s="71"/>
+      <c r="D936" s="71"/>
     </row>
     <row r="937" ht="9.75" customHeight="1">
       <c r="A937" s="9"/>
+      <c r="C937" s="71"/>
+      <c r="D937" s="71"/>
     </row>
     <row r="938" ht="9.75" customHeight="1">
       <c r="A938" s="9"/>
+      <c r="C938" s="71"/>
+      <c r="D938" s="71"/>
     </row>
     <row r="939" ht="9.75" customHeight="1">
       <c r="A939" s="9"/>
+      <c r="C939" s="71"/>
+      <c r="D939" s="71"/>
     </row>
     <row r="940" ht="9.75" customHeight="1">
       <c r="A940" s="9"/>
+      <c r="C940" s="71"/>
+      <c r="D940" s="71"/>
     </row>
     <row r="941" ht="9.75" customHeight="1">
       <c r="A941" s="9"/>
+      <c r="C941" s="71"/>
+      <c r="D941" s="71"/>
     </row>
     <row r="942" ht="9.75" customHeight="1">
       <c r="A942" s="9"/>
+      <c r="C942" s="71"/>
+      <c r="D942" s="71"/>
     </row>
     <row r="943" ht="9.75" customHeight="1">
       <c r="A943" s="9"/>
+      <c r="C943" s="71"/>
+      <c r="D943" s="71"/>
     </row>
     <row r="944" ht="9.75" customHeight="1">
       <c r="A944" s="9"/>
+      <c r="C944" s="71"/>
+      <c r="D944" s="71"/>
     </row>
     <row r="945" ht="9.75" customHeight="1">
       <c r="A945" s="9"/>
+      <c r="C945" s="71"/>
+      <c r="D945" s="71"/>
     </row>
     <row r="946" ht="9.75" customHeight="1">
       <c r="A946" s="9"/>
+      <c r="C946" s="71"/>
+      <c r="D946" s="71"/>
     </row>
     <row r="947" ht="9.75" customHeight="1">
       <c r="A947" s="9"/>
+      <c r="C947" s="71"/>
+      <c r="D947" s="71"/>
     </row>
     <row r="948" ht="9.75" customHeight="1">
       <c r="A948" s="9"/>
+      <c r="C948" s="71"/>
+      <c r="D948" s="71"/>
     </row>
     <row r="949" ht="9.75" customHeight="1">
       <c r="A949" s="9"/>
+      <c r="C949" s="71"/>
+      <c r="D949" s="71"/>
     </row>
     <row r="950" ht="9.75" customHeight="1">
       <c r="A950" s="9"/>
+      <c r="C950" s="71"/>
+      <c r="D950" s="71"/>
     </row>
     <row r="951" ht="9.75" customHeight="1">
       <c r="A951" s="9"/>
+      <c r="C951" s="71"/>
+      <c r="D951" s="71"/>
     </row>
     <row r="952" ht="9.75" customHeight="1">
       <c r="A952" s="9"/>
+      <c r="C952" s="71"/>
+      <c r="D952" s="71"/>
     </row>
     <row r="953" ht="9.75" customHeight="1">
       <c r="A953" s="9"/>
+      <c r="C953" s="71"/>
+      <c r="D953" s="71"/>
     </row>
     <row r="954" ht="9.75" customHeight="1">
       <c r="A954" s="9"/>
+      <c r="C954" s="71"/>
+      <c r="D954" s="71"/>
     </row>
     <row r="955" ht="9.75" customHeight="1">
       <c r="A955" s="9"/>
+      <c r="C955" s="71"/>
+      <c r="D955" s="71"/>
     </row>
     <row r="956" ht="9.75" customHeight="1">
       <c r="A956" s="9"/>
+      <c r="C956" s="71"/>
+      <c r="D956" s="71"/>
     </row>
     <row r="957" ht="9.75" customHeight="1">
       <c r="A957" s="9"/>
+      <c r="C957" s="71"/>
+      <c r="D957" s="71"/>
     </row>
     <row r="958" ht="9.75" customHeight="1">
       <c r="A958" s="9"/>
+      <c r="C958" s="71"/>
+      <c r="D958" s="71"/>
     </row>
     <row r="959" ht="9.75" customHeight="1">
       <c r="A959" s="9"/>
+      <c r="C959" s="71"/>
+      <c r="D959" s="71"/>
     </row>
     <row r="960" ht="9.75" customHeight="1">
       <c r="A960" s="9"/>
+      <c r="C960" s="71"/>
+      <c r="D960" s="71"/>
     </row>
     <row r="961" ht="9.75" customHeight="1">
       <c r="A961" s="9"/>
+      <c r="C961" s="71"/>
+      <c r="D961" s="71"/>
     </row>
     <row r="962" ht="9.75" customHeight="1">
       <c r="A962" s="9"/>
+      <c r="C962" s="71"/>
+      <c r="D962" s="71"/>
     </row>
     <row r="963" ht="9.75" customHeight="1">
       <c r="A963" s="9"/>
+      <c r="C963" s="71"/>
+      <c r="D963" s="71"/>
     </row>
     <row r="964" ht="9.75" customHeight="1">
       <c r="A964" s="9"/>
+      <c r="C964" s="71"/>
+      <c r="D964" s="71"/>
     </row>
     <row r="965" ht="9.75" customHeight="1">
       <c r="A965" s="9"/>
+      <c r="C965" s="71"/>
+      <c r="D965" s="71"/>
     </row>
     <row r="966" ht="9.75" customHeight="1">
       <c r="A966" s="9"/>
+      <c r="C966" s="71"/>
+      <c r="D966" s="71"/>
     </row>
     <row r="967" ht="9.75" customHeight="1">
       <c r="A967" s="9"/>
+      <c r="C967" s="71"/>
+      <c r="D967" s="71"/>
     </row>
     <row r="968" ht="9.75" customHeight="1">
       <c r="A968" s="9"/>
+      <c r="C968" s="71"/>
+      <c r="D968" s="71"/>
     </row>
     <row r="969" ht="9.75" customHeight="1">
       <c r="A969" s="9"/>
+      <c r="C969" s="71"/>
+      <c r="D969" s="71"/>
     </row>
     <row r="970" ht="9.75" customHeight="1">
       <c r="A970" s="9"/>
+      <c r="C970" s="71"/>
+      <c r="D970" s="71"/>
     </row>
     <row r="971" ht="9.75" customHeight="1">
       <c r="A971" s="9"/>
+      <c r="C971" s="71"/>
+      <c r="D971" s="71"/>
     </row>
     <row r="972" ht="9.75" customHeight="1">
       <c r="A972" s="9"/>
+      <c r="C972" s="71"/>
+      <c r="D972" s="71"/>
     </row>
     <row r="973" ht="9.75" customHeight="1">
       <c r="A973" s="9"/>
+      <c r="C973" s="71"/>
+      <c r="D973" s="71"/>
     </row>
     <row r="974" ht="9.75" customHeight="1">
       <c r="A974" s="9"/>
+      <c r="C974" s="71"/>
+      <c r="D974" s="71"/>
     </row>
     <row r="975" ht="9.75" customHeight="1">
       <c r="A975" s="9"/>
+      <c r="C975" s="71"/>
+      <c r="D975" s="71"/>
     </row>
     <row r="976" ht="9.75" customHeight="1">
       <c r="A976" s="9"/>
+      <c r="C976" s="71"/>
+      <c r="D976" s="71"/>
     </row>
     <row r="977" ht="9.75" customHeight="1">
       <c r="A977" s="9"/>
+      <c r="C977" s="71"/>
+      <c r="D977" s="71"/>
     </row>
     <row r="978" ht="9.75" customHeight="1">
       <c r="A978" s="9"/>
+      <c r="C978" s="71"/>
+      <c r="D978" s="71"/>
     </row>
     <row r="979" ht="9.75" customHeight="1">
       <c r="A979" s="9"/>
+      <c r="C979" s="71"/>
+      <c r="D979" s="71"/>
     </row>
     <row r="980" ht="9.75" customHeight="1">
       <c r="A980" s="9"/>
+      <c r="C980" s="71"/>
+      <c r="D980" s="71"/>
     </row>
     <row r="981" ht="9.75" customHeight="1">
       <c r="A981" s="9"/>
+      <c r="C981" s="71"/>
+      <c r="D981" s="71"/>
     </row>
     <row r="982" ht="9.75" customHeight="1">
       <c r="A982" s="9"/>
+      <c r="C982" s="71"/>
+      <c r="D982" s="71"/>
     </row>
     <row r="983" ht="9.75" customHeight="1">
       <c r="A983" s="9"/>
+      <c r="C983" s="71"/>
+      <c r="D983" s="71"/>
     </row>
     <row r="984" ht="9.75" customHeight="1">
       <c r="A984" s="9"/>
+      <c r="C984" s="71"/>
+      <c r="D984" s="71"/>
     </row>
     <row r="985" ht="9.75" customHeight="1">
       <c r="A985" s="9"/>
+      <c r="C985" s="71"/>
+      <c r="D985" s="71"/>
     </row>
     <row r="986" ht="9.75" customHeight="1">
       <c r="A986" s="9"/>
+      <c r="C986" s="71"/>
+      <c r="D986" s="71"/>
     </row>
     <row r="987" ht="9.75" customHeight="1">
       <c r="A987" s="9"/>
+      <c r="C987" s="71"/>
+      <c r="D987" s="71"/>
     </row>
     <row r="988" ht="9.75" customHeight="1">
       <c r="A988" s="9"/>
+      <c r="C988" s="71"/>
+      <c r="D988" s="71"/>
     </row>
     <row r="989" ht="9.75" customHeight="1">
       <c r="A989" s="9"/>
+      <c r="C989" s="71"/>
+      <c r="D989" s="71"/>
     </row>
     <row r="990" ht="9.75" customHeight="1">
       <c r="A990" s="9"/>
+      <c r="C990" s="71"/>
+      <c r="D990" s="71"/>
     </row>
     <row r="991" ht="9.75" customHeight="1">
       <c r="A991" s="9"/>
+      <c r="C991" s="71"/>
+      <c r="D991" s="71"/>
     </row>
     <row r="992" ht="9.75" customHeight="1">
       <c r="A992" s="9"/>
+      <c r="C992" s="71"/>
+      <c r="D992" s="71"/>
     </row>
     <row r="993" ht="9.75" customHeight="1">
       <c r="A993" s="9"/>
+      <c r="C993" s="71"/>
+      <c r="D993" s="71"/>
     </row>
     <row r="994" ht="9.75" customHeight="1">
       <c r="A994" s="9"/>
+      <c r="C994" s="71"/>
+      <c r="D994" s="71"/>
     </row>
     <row r="995" ht="9.75" customHeight="1">
       <c r="A995" s="9"/>
+      <c r="C995" s="71"/>
+      <c r="D995" s="71"/>
     </row>
     <row r="996" ht="9.75" customHeight="1">
       <c r="A996" s="9"/>
+      <c r="C996" s="71"/>
+      <c r="D996" s="71"/>
     </row>
     <row r="997" ht="9.75" customHeight="1">
       <c r="A997" s="9"/>
+      <c r="C997" s="71"/>
+      <c r="D997" s="71"/>
     </row>
     <row r="998" ht="9.75" customHeight="1">
       <c r="A998" s="9"/>
+      <c r="C998" s="71"/>
+      <c r="D998" s="71"/>
     </row>
     <row r="999" ht="9.75" customHeight="1">
       <c r="A999" s="9"/>
+      <c r="C999" s="71"/>
+      <c r="D999" s="71"/>
     </row>
     <row r="1000" ht="9.75" customHeight="1">
       <c r="A1000" s="9"/>
+      <c r="C1000" s="71"/>
+      <c r="D1000" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$A$145"/>
@@ -59654,10 +61369,10 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -59665,7 +61380,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -59673,7 +61388,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -59681,7 +61396,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="5" ht="9.75" customHeight="1">
@@ -59689,7 +61404,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -59697,7 +61412,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -59705,7 +61420,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -59713,15 +61428,15 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
-      <c r="A9" s="70">
+      <c r="A9" s="72">
         <v>8.0</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1">
@@ -62722,10 +64437,10 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -62733,7 +64448,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -62741,7 +64456,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -62749,7 +64464,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="5" ht="9.75" customHeight="1">
@@ -62757,7 +64472,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -62765,7 +64480,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -62773,7 +64488,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -62781,7 +64496,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
@@ -62789,7 +64504,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1">
@@ -62797,7 +64512,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="11" ht="9.75" customHeight="1">
@@ -62805,7 +64520,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="12" ht="9.75" customHeight="1">
@@ -62813,7 +64528,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="13" ht="9.75" customHeight="1">
@@ -62821,7 +64536,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="14" ht="9.75" customHeight="1">
@@ -62829,7 +64544,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="15" ht="9.75" customHeight="1">
@@ -62837,7 +64552,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="16" ht="9.75" customHeight="1">
@@ -62845,7 +64560,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="17" ht="9.75" customHeight="1">
@@ -62853,7 +64568,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="18" ht="9.75" customHeight="1">
@@ -62861,7 +64576,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="19" ht="9.75" customHeight="1">
@@ -62869,7 +64584,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="20" ht="9.75" customHeight="1">
@@ -62877,7 +64592,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="21" ht="9.75" customHeight="1">
@@ -62885,7 +64600,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="22" ht="9.75" customHeight="1">
@@ -62893,7 +64608,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="23" ht="9.75" customHeight="1">
@@ -62901,7 +64616,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="24" ht="9.75" customHeight="1">
@@ -62909,7 +64624,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="25" ht="9.75" customHeight="1">
@@ -62917,7 +64632,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="26" ht="9.75" customHeight="1">
@@ -62925,7 +64640,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="27" ht="9.75" customHeight="1">
@@ -62933,7 +64648,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="28" ht="9.75" customHeight="1">
@@ -62941,7 +64656,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="29" ht="9.75" customHeight="1">
@@ -62949,7 +64664,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="30" ht="9.75" customHeight="1">
@@ -65890,10 +67605,10 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -65901,7 +67616,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -65909,7 +67624,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -65917,7 +67632,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="5" ht="9.75" customHeight="1">
@@ -65925,7 +67640,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -65933,7 +67648,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -65941,7 +67656,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -65949,7 +67664,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
@@ -65957,7 +67672,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1"/>
@@ -66976,10 +68691,10 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B1" s="71" t="s">
         <v>1616</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="2" ht="9.75" customHeight="1">
@@ -66987,7 +68702,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="3" ht="9.75" customHeight="1">
@@ -66995,7 +68710,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="4" ht="9.75" customHeight="1">
@@ -67003,7 +68718,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="5" ht="9.75" customHeight="1">
@@ -67011,7 +68726,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="6" ht="9.75" customHeight="1">
@@ -67019,7 +68734,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="7" ht="9.75" customHeight="1">
@@ -67027,7 +68742,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="8" ht="9.75" customHeight="1">
@@ -67035,7 +68750,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="9" ht="9.75" customHeight="1">
@@ -67043,7 +68758,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="10" ht="9.75" customHeight="1">
@@ -67051,7 +68766,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="11" ht="9.75" customHeight="1">
@@ -67059,7 +68774,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12" ht="9.75" customHeight="1"/>
